--- a/Book.xlsx
+++ b/Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3092936-BC91-4869-BABE-5101933AC58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16142D2-CE0C-4F8B-B5E9-53661881197E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14789" uniqueCount="7397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14769" uniqueCount="7387">
   <si>
     <t>LOCATION_ID</t>
   </si>
@@ -22171,36 +22171,6 @@
   </si>
   <si>
     <t>1F2AJ1070504</t>
-  </si>
-  <si>
-    <t>1F2AJ1070505</t>
-  </si>
-  <si>
-    <t>1F2AJ1070601</t>
-  </si>
-  <si>
-    <t>1F2AJ1070602</t>
-  </si>
-  <si>
-    <t>1F2AJ1070603</t>
-  </si>
-  <si>
-    <t>1F2AJ1070604</t>
-  </si>
-  <si>
-    <t>1F2AJ1070605</t>
-  </si>
-  <si>
-    <t>1F2AJ1070701</t>
-  </si>
-  <si>
-    <t>1F2AJ1070702</t>
-  </si>
-  <si>
-    <t>1F2AJ1070703</t>
-  </si>
-  <si>
-    <t>1F2AJ1070704</t>
   </si>
   <si>
     <t>1F2AJ1070705</t>
@@ -22533,10 +22503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7395"/>
+  <dimension ref="A1:B7385"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7373" workbookViewId="0">
-      <selection sqref="A1:B7395"/>
+      <selection activeCell="B7389" sqref="B7389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -81621,86 +81591,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7386" t="s">
-        <v>7387</v>
-      </c>
-      <c r="B7386" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7387" t="s">
-        <v>7388</v>
-      </c>
-      <c r="B7387" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7388" t="s">
-        <v>7389</v>
-      </c>
-      <c r="B7388" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7389" t="s">
-        <v>7390</v>
-      </c>
-      <c r="B7389" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7390" t="s">
-        <v>7391</v>
-      </c>
-      <c r="B7390" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7391" t="s">
-        <v>7392</v>
-      </c>
-      <c r="B7391" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7392" t="s">
-        <v>7393</v>
-      </c>
-      <c r="B7392" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7393" t="s">
-        <v>7394</v>
-      </c>
-      <c r="B7393" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7394" t="s">
-        <v>7395</v>
-      </c>
-      <c r="B7394" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7395" t="s">
-        <v>7396</v>
-      </c>
-      <c r="B7395" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book.xlsx
+++ b/Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF7F262-986E-47F3-9356-EEA0A9421756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32238BD7-13CA-4DC6-A6DE-16BF5721A24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10999" uniqueCount="5502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10001" uniqueCount="5003">
   <si>
     <t>LOCATION_ID</t>
   </si>
@@ -15034,1503 +15034,6 @@
   </si>
   <si>
     <t>1F2AF1040201</t>
-  </si>
-  <si>
-    <t>1F2AF1040202</t>
-  </si>
-  <si>
-    <t>1F2AF1040203</t>
-  </si>
-  <si>
-    <t>1F2AF1040204</t>
-  </si>
-  <si>
-    <t>1F2AF1040205</t>
-  </si>
-  <si>
-    <t>1F2AF1040301</t>
-  </si>
-  <si>
-    <t>1F2AF1040302</t>
-  </si>
-  <si>
-    <t>1F2AF1040303</t>
-  </si>
-  <si>
-    <t>1F2AF1040304</t>
-  </si>
-  <si>
-    <t>1F2AF1040305</t>
-  </si>
-  <si>
-    <t>1F2AF1040401</t>
-  </si>
-  <si>
-    <t>1F2AF1040402</t>
-  </si>
-  <si>
-    <t>1F2AF1040403</t>
-  </si>
-  <si>
-    <t>1F2AF1040404</t>
-  </si>
-  <si>
-    <t>1F2AF1040405</t>
-  </si>
-  <si>
-    <t>1F2AF1040501</t>
-  </si>
-  <si>
-    <t>1F2AF1040502</t>
-  </si>
-  <si>
-    <t>1F2AF1040503</t>
-  </si>
-  <si>
-    <t>1F2AF1040504</t>
-  </si>
-  <si>
-    <t>1F2AF1040505</t>
-  </si>
-  <si>
-    <t>1F2AF1040601</t>
-  </si>
-  <si>
-    <t>1F2AF1040602</t>
-  </si>
-  <si>
-    <t>1F2AF1040603</t>
-  </si>
-  <si>
-    <t>1F2AF1040604</t>
-  </si>
-  <si>
-    <t>1F2AF1040605</t>
-  </si>
-  <si>
-    <t>1F2AF1040701</t>
-  </si>
-  <si>
-    <t>1F2AF1040702</t>
-  </si>
-  <si>
-    <t>1F2AF1040703</t>
-  </si>
-  <si>
-    <t>1F2AF1040704</t>
-  </si>
-  <si>
-    <t>1F2AF1040705</t>
-  </si>
-  <si>
-    <t>1F2AF1040801</t>
-  </si>
-  <si>
-    <t>1F2AF1040802</t>
-  </si>
-  <si>
-    <t>1F2AF1040803</t>
-  </si>
-  <si>
-    <t>1F2AF1040804</t>
-  </si>
-  <si>
-    <t>1F2AF1040805</t>
-  </si>
-  <si>
-    <t>1F2AF1050101</t>
-  </si>
-  <si>
-    <t>1F2AF1050102</t>
-  </si>
-  <si>
-    <t>1F2AF1050103</t>
-  </si>
-  <si>
-    <t>1F2AF1050104</t>
-  </si>
-  <si>
-    <t>1F2AF1050105</t>
-  </si>
-  <si>
-    <t>1F2AF1050201</t>
-  </si>
-  <si>
-    <t>1F2AF1050202</t>
-  </si>
-  <si>
-    <t>1F2AF1050203</t>
-  </si>
-  <si>
-    <t>1F2AF1050204</t>
-  </si>
-  <si>
-    <t>1F2AF1050205</t>
-  </si>
-  <si>
-    <t>1F2AF1050301</t>
-  </si>
-  <si>
-    <t>1F2AF1050302</t>
-  </si>
-  <si>
-    <t>1F2AF1050303</t>
-  </si>
-  <si>
-    <t>1F2AF1050304</t>
-  </si>
-  <si>
-    <t>1F2AF1050305</t>
-  </si>
-  <si>
-    <t>1F2AF1050401</t>
-  </si>
-  <si>
-    <t>1F2AF1050402</t>
-  </si>
-  <si>
-    <t>1F2AF1050403</t>
-  </si>
-  <si>
-    <t>1F2AF1050404</t>
-  </si>
-  <si>
-    <t>1F2AF1050405</t>
-  </si>
-  <si>
-    <t>1F2AF1050501</t>
-  </si>
-  <si>
-    <t>1F2AF1050502</t>
-  </si>
-  <si>
-    <t>1F2AF1050503</t>
-  </si>
-  <si>
-    <t>1F2AF1050504</t>
-  </si>
-  <si>
-    <t>1F2AF1050505</t>
-  </si>
-  <si>
-    <t>1F2AF1050601</t>
-  </si>
-  <si>
-    <t>1F2AF1050602</t>
-  </si>
-  <si>
-    <t>1F2AF1050603</t>
-  </si>
-  <si>
-    <t>1F2AF1050604</t>
-  </si>
-  <si>
-    <t>1F2AF1050605</t>
-  </si>
-  <si>
-    <t>1F2AF1050701</t>
-  </si>
-  <si>
-    <t>1F2AF1050702</t>
-  </si>
-  <si>
-    <t>1F2AF1050703</t>
-  </si>
-  <si>
-    <t>1F2AF1050704</t>
-  </si>
-  <si>
-    <t>1F2AF1050705</t>
-  </si>
-  <si>
-    <t>1F2AF1050801</t>
-  </si>
-  <si>
-    <t>1F2AF1050802</t>
-  </si>
-  <si>
-    <t>1F2AF1050803</t>
-  </si>
-  <si>
-    <t>1F2AF1050804</t>
-  </si>
-  <si>
-    <t>1F2AF1050805</t>
-  </si>
-  <si>
-    <t>1F2AF1060101</t>
-  </si>
-  <si>
-    <t>1F2AF1060102</t>
-  </si>
-  <si>
-    <t>1F2AF1060103</t>
-  </si>
-  <si>
-    <t>1F2AF1060104</t>
-  </si>
-  <si>
-    <t>1F2AF1060105</t>
-  </si>
-  <si>
-    <t>1F2AF1060201</t>
-  </si>
-  <si>
-    <t>1F2AF1060202</t>
-  </si>
-  <si>
-    <t>1F2AF1060203</t>
-  </si>
-  <si>
-    <t>1F2AF1060204</t>
-  </si>
-  <si>
-    <t>1F2AF1060205</t>
-  </si>
-  <si>
-    <t>1F2AF1060301</t>
-  </si>
-  <si>
-    <t>1F2AF1060302</t>
-  </si>
-  <si>
-    <t>1F2AF1060303</t>
-  </si>
-  <si>
-    <t>1F2AF1060304</t>
-  </si>
-  <si>
-    <t>1F2AF1060305</t>
-  </si>
-  <si>
-    <t>1F2AF1060401</t>
-  </si>
-  <si>
-    <t>1F2AF1060402</t>
-  </si>
-  <si>
-    <t>1F2AF1060403</t>
-  </si>
-  <si>
-    <t>1F2AF1060404</t>
-  </si>
-  <si>
-    <t>1F2AF1060405</t>
-  </si>
-  <si>
-    <t>1F2AF1060501</t>
-  </si>
-  <si>
-    <t>1F2AF1060502</t>
-  </si>
-  <si>
-    <t>1F2AF1060503</t>
-  </si>
-  <si>
-    <t>1F2AF1060504</t>
-  </si>
-  <si>
-    <t>1F2AF1060505</t>
-  </si>
-  <si>
-    <t>1F2AF1060601</t>
-  </si>
-  <si>
-    <t>1F2AF1060602</t>
-  </si>
-  <si>
-    <t>1F2AF1060603</t>
-  </si>
-  <si>
-    <t>1F2AF1060604</t>
-  </si>
-  <si>
-    <t>1F2AF1060605</t>
-  </si>
-  <si>
-    <t>1F2AF1060701</t>
-  </si>
-  <si>
-    <t>1F2AF1060702</t>
-  </si>
-  <si>
-    <t>1F2AF1060703</t>
-  </si>
-  <si>
-    <t>1F2AF1060704</t>
-  </si>
-  <si>
-    <t>1F2AF1060705</t>
-  </si>
-  <si>
-    <t>1F2AF1060801</t>
-  </si>
-  <si>
-    <t>1F2AF1060802</t>
-  </si>
-  <si>
-    <t>1F2AF1060803</t>
-  </si>
-  <si>
-    <t>1F2AF1060804</t>
-  </si>
-  <si>
-    <t>1F2AF1060805</t>
-  </si>
-  <si>
-    <t>1F2AF1070101</t>
-  </si>
-  <si>
-    <t>1F2AF1070102</t>
-  </si>
-  <si>
-    <t>1F2AF1070103</t>
-  </si>
-  <si>
-    <t>1F2AF1070104</t>
-  </si>
-  <si>
-    <t>1F2AF1070105</t>
-  </si>
-  <si>
-    <t>1F2AF1070201</t>
-  </si>
-  <si>
-    <t>1F2AF1070202</t>
-  </si>
-  <si>
-    <t>1F2AF1070203</t>
-  </si>
-  <si>
-    <t>1F2AF1070204</t>
-  </si>
-  <si>
-    <t>1F2AF1070205</t>
-  </si>
-  <si>
-    <t>1F2AF1070301</t>
-  </si>
-  <si>
-    <t>1F2AF1070302</t>
-  </si>
-  <si>
-    <t>1F2AF1070303</t>
-  </si>
-  <si>
-    <t>1F2AF1070304</t>
-  </si>
-  <si>
-    <t>1F2AF1070305</t>
-  </si>
-  <si>
-    <t>1F2AF1070401</t>
-  </si>
-  <si>
-    <t>1F2AF1070402</t>
-  </si>
-  <si>
-    <t>1F2AF1070403</t>
-  </si>
-  <si>
-    <t>1F2AF1070404</t>
-  </si>
-  <si>
-    <t>1F2AF1070405</t>
-  </si>
-  <si>
-    <t>1F2AF1070501</t>
-  </si>
-  <si>
-    <t>1F2AF1070502</t>
-  </si>
-  <si>
-    <t>1F2AF1070503</t>
-  </si>
-  <si>
-    <t>1F2AF1070504</t>
-  </si>
-  <si>
-    <t>1F2AF1070505</t>
-  </si>
-  <si>
-    <t>1F2AF1070601</t>
-  </si>
-  <si>
-    <t>1F2AF1070602</t>
-  </si>
-  <si>
-    <t>1F2AF1070603</t>
-  </si>
-  <si>
-    <t>1F2AF1070604</t>
-  </si>
-  <si>
-    <t>1F2AF1070605</t>
-  </si>
-  <si>
-    <t>1F2AF1070701</t>
-  </si>
-  <si>
-    <t>1F2AF1070702</t>
-  </si>
-  <si>
-    <t>1F2AF1070703</t>
-  </si>
-  <si>
-    <t>1F2AF1070704</t>
-  </si>
-  <si>
-    <t>1F2AF1070705</t>
-  </si>
-  <si>
-    <t>1F2AF1070801</t>
-  </si>
-  <si>
-    <t>1F2AF1070802</t>
-  </si>
-  <si>
-    <t>1F2AF1070803</t>
-  </si>
-  <si>
-    <t>1F2AF1070804</t>
-  </si>
-  <si>
-    <t>1F2AF1070805</t>
-  </si>
-  <si>
-    <t>1F2AF1080101</t>
-  </si>
-  <si>
-    <t>1F2AF1080102</t>
-  </si>
-  <si>
-    <t>1F2AF1080103</t>
-  </si>
-  <si>
-    <t>1F2AF1080104</t>
-  </si>
-  <si>
-    <t>1F2AF1080105</t>
-  </si>
-  <si>
-    <t>1F2AF1080201</t>
-  </si>
-  <si>
-    <t>1F2AF1080202</t>
-  </si>
-  <si>
-    <t>1F2AF1080203</t>
-  </si>
-  <si>
-    <t>1F2AF1080204</t>
-  </si>
-  <si>
-    <t>1F2AF1080205</t>
-  </si>
-  <si>
-    <t>1F2AF1080301</t>
-  </si>
-  <si>
-    <t>1F2AF1080302</t>
-  </si>
-  <si>
-    <t>1F2AF1080303</t>
-  </si>
-  <si>
-    <t>1F2AF1080304</t>
-  </si>
-  <si>
-    <t>1F2AF1080305</t>
-  </si>
-  <si>
-    <t>1F2AF1080401</t>
-  </si>
-  <si>
-    <t>1F2AF1080402</t>
-  </si>
-  <si>
-    <t>1F2AF1080403</t>
-  </si>
-  <si>
-    <t>1F2AF1080404</t>
-  </si>
-  <si>
-    <t>1F2AF1080405</t>
-  </si>
-  <si>
-    <t>1F2AF1080501</t>
-  </si>
-  <si>
-    <t>1F2AF1080502</t>
-  </si>
-  <si>
-    <t>1F2AF1080503</t>
-  </si>
-  <si>
-    <t>1F2AF1080504</t>
-  </si>
-  <si>
-    <t>1F2AF1080505</t>
-  </si>
-  <si>
-    <t>1F2AF1080601</t>
-  </si>
-  <si>
-    <t>1F2AF1080602</t>
-  </si>
-  <si>
-    <t>1F2AF1080603</t>
-  </si>
-  <si>
-    <t>1F2AF1080604</t>
-  </si>
-  <si>
-    <t>1F2AF1080605</t>
-  </si>
-  <si>
-    <t>1F2AF1080701</t>
-  </si>
-  <si>
-    <t>1F2AF1080702</t>
-  </si>
-  <si>
-    <t>1F2AF1080703</t>
-  </si>
-  <si>
-    <t>1F2AF1080704</t>
-  </si>
-  <si>
-    <t>1F2AF1080705</t>
-  </si>
-  <si>
-    <t>1F2AF1080801</t>
-  </si>
-  <si>
-    <t>1F2AF1080802</t>
-  </si>
-  <si>
-    <t>1F2AF1080803</t>
-  </si>
-  <si>
-    <t>1F2AF1080804</t>
-  </si>
-  <si>
-    <t>1F2AF1080805</t>
-  </si>
-  <si>
-    <t>1F2AF1090101</t>
-  </si>
-  <si>
-    <t>1F2AF1090102</t>
-  </si>
-  <si>
-    <t>1F2AF1090103</t>
-  </si>
-  <si>
-    <t>1F2AF1090104</t>
-  </si>
-  <si>
-    <t>1F2AF1090105</t>
-  </si>
-  <si>
-    <t>1F2AF1090201</t>
-  </si>
-  <si>
-    <t>1F2AF1090202</t>
-  </si>
-  <si>
-    <t>1F2AF1090203</t>
-  </si>
-  <si>
-    <t>1F2AF1090204</t>
-  </si>
-  <si>
-    <t>1F2AF1090205</t>
-  </si>
-  <si>
-    <t>1F2AF1090301</t>
-  </si>
-  <si>
-    <t>1F2AF1090302</t>
-  </si>
-  <si>
-    <t>1F2AF1090303</t>
-  </si>
-  <si>
-    <t>1F2AF1090304</t>
-  </si>
-  <si>
-    <t>1F2AF1090305</t>
-  </si>
-  <si>
-    <t>1F2AF1090401</t>
-  </si>
-  <si>
-    <t>1F2AF1090402</t>
-  </si>
-  <si>
-    <t>1F2AF1090403</t>
-  </si>
-  <si>
-    <t>1F2AF1090404</t>
-  </si>
-  <si>
-    <t>1F2AF1090405</t>
-  </si>
-  <si>
-    <t>1F2AF1090501</t>
-  </si>
-  <si>
-    <t>1F2AF1090502</t>
-  </si>
-  <si>
-    <t>1F2AF1090503</t>
-  </si>
-  <si>
-    <t>1F2AF1090504</t>
-  </si>
-  <si>
-    <t>1F2AF1090505</t>
-  </si>
-  <si>
-    <t>1F2AF1090601</t>
-  </si>
-  <si>
-    <t>1F2AF1090602</t>
-  </si>
-  <si>
-    <t>1F2AF1090603</t>
-  </si>
-  <si>
-    <t>1F2AF1090604</t>
-  </si>
-  <si>
-    <t>1F2AF1090605</t>
-  </si>
-  <si>
-    <t>1F2AF1090701</t>
-  </si>
-  <si>
-    <t>1F2AF1090702</t>
-  </si>
-  <si>
-    <t>1F2AF1090703</t>
-  </si>
-  <si>
-    <t>1F2AF1090704</t>
-  </si>
-  <si>
-    <t>1F2AF1090705</t>
-  </si>
-  <si>
-    <t>1F2AF1090801</t>
-  </si>
-  <si>
-    <t>1F2AF1090802</t>
-  </si>
-  <si>
-    <t>1F2AF1090803</t>
-  </si>
-  <si>
-    <t>1F2AF1090804</t>
-  </si>
-  <si>
-    <t>1F2AF1090805</t>
-  </si>
-  <si>
-    <t>1F2AF1100101</t>
-  </si>
-  <si>
-    <t>1F2AF1100102</t>
-  </si>
-  <si>
-    <t>1F2AF1100103</t>
-  </si>
-  <si>
-    <t>1F2AF1100104</t>
-  </si>
-  <si>
-    <t>1F2AF1100105</t>
-  </si>
-  <si>
-    <t>1F2AF1100201</t>
-  </si>
-  <si>
-    <t>1F2AF1100202</t>
-  </si>
-  <si>
-    <t>1F2AF1100203</t>
-  </si>
-  <si>
-    <t>1F2AF1100204</t>
-  </si>
-  <si>
-    <t>1F2AF1100205</t>
-  </si>
-  <si>
-    <t>1F2AF1100301</t>
-  </si>
-  <si>
-    <t>1F2AF1100302</t>
-  </si>
-  <si>
-    <t>1F2AF1100303</t>
-  </si>
-  <si>
-    <t>1F2AF1100304</t>
-  </si>
-  <si>
-    <t>1F2AF1100305</t>
-  </si>
-  <si>
-    <t>1F2AF1100401</t>
-  </si>
-  <si>
-    <t>1F2AF1100402</t>
-  </si>
-  <si>
-    <t>1F2AF1100403</t>
-  </si>
-  <si>
-    <t>1F2AF1100404</t>
-  </si>
-  <si>
-    <t>1F2AF1100405</t>
-  </si>
-  <si>
-    <t>1F2AF1100501</t>
-  </si>
-  <si>
-    <t>1F2AF1100502</t>
-  </si>
-  <si>
-    <t>1F2AF1100503</t>
-  </si>
-  <si>
-    <t>1F2AF1100504</t>
-  </si>
-  <si>
-    <t>1F2AF1100505</t>
-  </si>
-  <si>
-    <t>1F2AF1100601</t>
-  </si>
-  <si>
-    <t>1F2AF1100602</t>
-  </si>
-  <si>
-    <t>1F2AF1100603</t>
-  </si>
-  <si>
-    <t>1F2AF1100604</t>
-  </si>
-  <si>
-    <t>1F2AF1100605</t>
-  </si>
-  <si>
-    <t>1F2AF1100701</t>
-  </si>
-  <si>
-    <t>1F2AF1100702</t>
-  </si>
-  <si>
-    <t>1F2AF1100703</t>
-  </si>
-  <si>
-    <t>1F2AF1100704</t>
-  </si>
-  <si>
-    <t>1F2AF1100705</t>
-  </si>
-  <si>
-    <t>1F2AF1100801</t>
-  </si>
-  <si>
-    <t>1F2AF1100802</t>
-  </si>
-  <si>
-    <t>1F2AF1100803</t>
-  </si>
-  <si>
-    <t>1F2AF1100804</t>
-  </si>
-  <si>
-    <t>1F2AF1100805</t>
-  </si>
-  <si>
-    <t>1F2AF1110101</t>
-  </si>
-  <si>
-    <t>1F2AF1110102</t>
-  </si>
-  <si>
-    <t>1F2AF1110103</t>
-  </si>
-  <si>
-    <t>1F2AF1110104</t>
-  </si>
-  <si>
-    <t>1F2AF1110105</t>
-  </si>
-  <si>
-    <t>1F2AF1110201</t>
-  </si>
-  <si>
-    <t>1F2AF1110202</t>
-  </si>
-  <si>
-    <t>1F2AF1110203</t>
-  </si>
-  <si>
-    <t>1F2AF1110204</t>
-  </si>
-  <si>
-    <t>1F2AF1110205</t>
-  </si>
-  <si>
-    <t>1F2AF1110301</t>
-  </si>
-  <si>
-    <t>1F2AF1110302</t>
-  </si>
-  <si>
-    <t>1F2AF1110303</t>
-  </si>
-  <si>
-    <t>1F2AF1110304</t>
-  </si>
-  <si>
-    <t>1F2AF1110305</t>
-  </si>
-  <si>
-    <t>1F2AF1110401</t>
-  </si>
-  <si>
-    <t>1F2AF1110402</t>
-  </si>
-  <si>
-    <t>1F2AF1110403</t>
-  </si>
-  <si>
-    <t>1F2AF1110404</t>
-  </si>
-  <si>
-    <t>1F2AF1110405</t>
-  </si>
-  <si>
-    <t>1F2AF1110501</t>
-  </si>
-  <si>
-    <t>1F2AF1110502</t>
-  </si>
-  <si>
-    <t>1F2AF1110503</t>
-  </si>
-  <si>
-    <t>1F2AF1110504</t>
-  </si>
-  <si>
-    <t>1F2AF1110505</t>
-  </si>
-  <si>
-    <t>1F2AF1110601</t>
-  </si>
-  <si>
-    <t>1F2AF1110602</t>
-  </si>
-  <si>
-    <t>1F2AF1110603</t>
-  </si>
-  <si>
-    <t>1F2AF1110604</t>
-  </si>
-  <si>
-    <t>1F2AF1110605</t>
-  </si>
-  <si>
-    <t>1F2AF1110701</t>
-  </si>
-  <si>
-    <t>1F2AF1110702</t>
-  </si>
-  <si>
-    <t>1F2AF1110703</t>
-  </si>
-  <si>
-    <t>1F2AF1110704</t>
-  </si>
-  <si>
-    <t>1F2AF1110705</t>
-  </si>
-  <si>
-    <t>1F2AF1110801</t>
-  </si>
-  <si>
-    <t>1F2AF1110802</t>
-  </si>
-  <si>
-    <t>1F2AF1110803</t>
-  </si>
-  <si>
-    <t>1F2AF1110804</t>
-  </si>
-  <si>
-    <t>1F2AF1110805</t>
-  </si>
-  <si>
-    <t>1F2AF1120101</t>
-  </si>
-  <si>
-    <t>1F2AF1120102</t>
-  </si>
-  <si>
-    <t>1F2AF1120103</t>
-  </si>
-  <si>
-    <t>1F2AF1120104</t>
-  </si>
-  <si>
-    <t>1F2AF1120105</t>
-  </si>
-  <si>
-    <t>1F2AF1120201</t>
-  </si>
-  <si>
-    <t>1F2AF1120202</t>
-  </si>
-  <si>
-    <t>1F2AF1120203</t>
-  </si>
-  <si>
-    <t>1F2AF1120204</t>
-  </si>
-  <si>
-    <t>1F2AF1120205</t>
-  </si>
-  <si>
-    <t>1F2AF1120301</t>
-  </si>
-  <si>
-    <t>1F2AF1120302</t>
-  </si>
-  <si>
-    <t>1F2AF1120303</t>
-  </si>
-  <si>
-    <t>1F2AF1120304</t>
-  </si>
-  <si>
-    <t>1F2AF1120305</t>
-  </si>
-  <si>
-    <t>1F2AF1120401</t>
-  </si>
-  <si>
-    <t>1F2AF1120402</t>
-  </si>
-  <si>
-    <t>1F2AF1120403</t>
-  </si>
-  <si>
-    <t>1F2AF1120404</t>
-  </si>
-  <si>
-    <t>1F2AF1120405</t>
-  </si>
-  <si>
-    <t>1F2AF1120501</t>
-  </si>
-  <si>
-    <t>1F2AF1120502</t>
-  </si>
-  <si>
-    <t>1F2AF1120503</t>
-  </si>
-  <si>
-    <t>1F2AF1120504</t>
-  </si>
-  <si>
-    <t>1F2AF1120505</t>
-  </si>
-  <si>
-    <t>1F2AF1120601</t>
-  </si>
-  <si>
-    <t>1F2AF1120602</t>
-  </si>
-  <si>
-    <t>1F2AF1120603</t>
-  </si>
-  <si>
-    <t>1F2AF1120604</t>
-  </si>
-  <si>
-    <t>1F2AF1120605</t>
-  </si>
-  <si>
-    <t>1F2AF1120701</t>
-  </si>
-  <si>
-    <t>1F2AF1120702</t>
-  </si>
-  <si>
-    <t>1F2AF1120703</t>
-  </si>
-  <si>
-    <t>1F2AF1120704</t>
-  </si>
-  <si>
-    <t>1F2AF1120705</t>
-  </si>
-  <si>
-    <t>1F2AF1120801</t>
-  </si>
-  <si>
-    <t>1F2AF1120802</t>
-  </si>
-  <si>
-    <t>1F2AF1120803</t>
-  </si>
-  <si>
-    <t>1F2AF1120804</t>
-  </si>
-  <si>
-    <t>1F2AF1120805</t>
-  </si>
-  <si>
-    <t>1F2AF1130101</t>
-  </si>
-  <si>
-    <t>1F2AF1130102</t>
-  </si>
-  <si>
-    <t>1F2AF1130103</t>
-  </si>
-  <si>
-    <t>1F2AF1130104</t>
-  </si>
-  <si>
-    <t>1F2AF1130105</t>
-  </si>
-  <si>
-    <t>1F2AF1130201</t>
-  </si>
-  <si>
-    <t>1F2AF1130202</t>
-  </si>
-  <si>
-    <t>1F2AF1130203</t>
-  </si>
-  <si>
-    <t>1F2AF1130204</t>
-  </si>
-  <si>
-    <t>1F2AF1130205</t>
-  </si>
-  <si>
-    <t>1F2AF1130301</t>
-  </si>
-  <si>
-    <t>1F2AF1130302</t>
-  </si>
-  <si>
-    <t>1F2AF1130303</t>
-  </si>
-  <si>
-    <t>1F2AF1130304</t>
-  </si>
-  <si>
-    <t>1F2AF1130305</t>
-  </si>
-  <si>
-    <t>1F2AF1130401</t>
-  </si>
-  <si>
-    <t>1F2AF1130402</t>
-  </si>
-  <si>
-    <t>1F2AF1130403</t>
-  </si>
-  <si>
-    <t>1F2AF1130404</t>
-  </si>
-  <si>
-    <t>1F2AF1130405</t>
-  </si>
-  <si>
-    <t>1F2AF1130501</t>
-  </si>
-  <si>
-    <t>1F2AF1130502</t>
-  </si>
-  <si>
-    <t>1F2AF1130503</t>
-  </si>
-  <si>
-    <t>1F2AF1130504</t>
-  </si>
-  <si>
-    <t>1F2AF1130505</t>
-  </si>
-  <si>
-    <t>1F2AF1130601</t>
-  </si>
-  <si>
-    <t>1F2AF1130602</t>
-  </si>
-  <si>
-    <t>1F2AF1130603</t>
-  </si>
-  <si>
-    <t>1F2AF1130604</t>
-  </si>
-  <si>
-    <t>1F2AF1130605</t>
-  </si>
-  <si>
-    <t>1F2AF1130701</t>
-  </si>
-  <si>
-    <t>1F2AF1130702</t>
-  </si>
-  <si>
-    <t>1F2AF1130703</t>
-  </si>
-  <si>
-    <t>1F2AF1130704</t>
-  </si>
-  <si>
-    <t>1F2AF1130705</t>
-  </si>
-  <si>
-    <t>1F2AF1130801</t>
-  </si>
-  <si>
-    <t>1F2AF1130802</t>
-  </si>
-  <si>
-    <t>1F2AF1130803</t>
-  </si>
-  <si>
-    <t>1F2AF1130804</t>
-  </si>
-  <si>
-    <t>1F2AF1130805</t>
-  </si>
-  <si>
-    <t>1F2AF1140101</t>
-  </si>
-  <si>
-    <t>1F2AF1140102</t>
-  </si>
-  <si>
-    <t>1F2AF1140103</t>
-  </si>
-  <si>
-    <t>1F2AF1140104</t>
-  </si>
-  <si>
-    <t>1F2AF1140105</t>
-  </si>
-  <si>
-    <t>1F2AF1140201</t>
-  </si>
-  <si>
-    <t>1F2AF1140202</t>
-  </si>
-  <si>
-    <t>1F2AF1140203</t>
-  </si>
-  <si>
-    <t>1F2AF1140204</t>
-  </si>
-  <si>
-    <t>1F2AF1140205</t>
-  </si>
-  <si>
-    <t>1F2AF1140301</t>
-  </si>
-  <si>
-    <t>1F2AF1140302</t>
-  </si>
-  <si>
-    <t>1F2AF1140303</t>
-  </si>
-  <si>
-    <t>1F2AF1140304</t>
-  </si>
-  <si>
-    <t>1F2AF1140305</t>
-  </si>
-  <si>
-    <t>1F2AF1140401</t>
-  </si>
-  <si>
-    <t>1F2AF1140402</t>
-  </si>
-  <si>
-    <t>1F2AF1140403</t>
-  </si>
-  <si>
-    <t>1F2AF1140404</t>
-  </si>
-  <si>
-    <t>1F2AF1140405</t>
-  </si>
-  <si>
-    <t>1F2AF1140501</t>
-  </si>
-  <si>
-    <t>1F2AF1140502</t>
-  </si>
-  <si>
-    <t>1F2AF1140503</t>
-  </si>
-  <si>
-    <t>1F2AF1140504</t>
-  </si>
-  <si>
-    <t>1F2AF1140505</t>
-  </si>
-  <si>
-    <t>1F2AF1140601</t>
-  </si>
-  <si>
-    <t>1F2AF1140602</t>
-  </si>
-  <si>
-    <t>1F2AF1140603</t>
-  </si>
-  <si>
-    <t>1F2AF1140604</t>
-  </si>
-  <si>
-    <t>1F2AF1140605</t>
-  </si>
-  <si>
-    <t>1F2AF1140701</t>
-  </si>
-  <si>
-    <t>1F2AF1140702</t>
-  </si>
-  <si>
-    <t>1F2AF1140703</t>
-  </si>
-  <si>
-    <t>1F2AF1140704</t>
-  </si>
-  <si>
-    <t>1F2AF1140705</t>
-  </si>
-  <si>
-    <t>1F2AF1140801</t>
-  </si>
-  <si>
-    <t>1F2AF1140802</t>
-  </si>
-  <si>
-    <t>1F2AF1140803</t>
-  </si>
-  <si>
-    <t>1F2AF1140804</t>
-  </si>
-  <si>
-    <t>1F2AF1140805</t>
-  </si>
-  <si>
-    <t>1F2AG1010101</t>
-  </si>
-  <si>
-    <t>1F2AG1010102</t>
-  </si>
-  <si>
-    <t>1F2AG1010103</t>
-  </si>
-  <si>
-    <t>1F2AG1010104</t>
-  </si>
-  <si>
-    <t>1F2AG1010105</t>
-  </si>
-  <si>
-    <t>1F2AG1010201</t>
-  </si>
-  <si>
-    <t>1F2AG1010202</t>
-  </si>
-  <si>
-    <t>1F2AG1010203</t>
-  </si>
-  <si>
-    <t>1F2AG1010204</t>
-  </si>
-  <si>
-    <t>1F2AG1010205</t>
-  </si>
-  <si>
-    <t>1F2AG1010301</t>
-  </si>
-  <si>
-    <t>1F2AG1010302</t>
-  </si>
-  <si>
-    <t>1F2AG1010303</t>
-  </si>
-  <si>
-    <t>1F2AG1010304</t>
-  </si>
-  <si>
-    <t>1F2AG1010305</t>
-  </si>
-  <si>
-    <t>1F2AG1010401</t>
-  </si>
-  <si>
-    <t>1F2AG1010402</t>
-  </si>
-  <si>
-    <t>1F2AG1010403</t>
-  </si>
-  <si>
-    <t>1F2AG1010404</t>
-  </si>
-  <si>
-    <t>1F2AG1010405</t>
-  </si>
-  <si>
-    <t>1F2AG1010501</t>
-  </si>
-  <si>
-    <t>1F2AG1010502</t>
-  </si>
-  <si>
-    <t>1F2AG1010503</t>
-  </si>
-  <si>
-    <t>1F2AG1010504</t>
-  </si>
-  <si>
-    <t>1F2AG1010505</t>
-  </si>
-  <si>
-    <t>1F2AG1010601</t>
-  </si>
-  <si>
-    <t>1F2AG1010602</t>
-  </si>
-  <si>
-    <t>1F2AG1010603</t>
-  </si>
-  <si>
-    <t>1F2AG1010604</t>
-  </si>
-  <si>
-    <t>1F2AG1010605</t>
-  </si>
-  <si>
-    <t>1F2AG1010701</t>
-  </si>
-  <si>
-    <t>1F2AG1010702</t>
-  </si>
-  <si>
-    <t>1F2AG1010703</t>
-  </si>
-  <si>
-    <t>1F2AG1010704</t>
-  </si>
-  <si>
-    <t>1F2AG1010705</t>
-  </si>
-  <si>
-    <t>1F2AG1010801</t>
-  </si>
-  <si>
-    <t>1F2AG1010802</t>
-  </si>
-  <si>
-    <t>1F2AG1010803</t>
-  </si>
-  <si>
-    <t>1F2AG1010804</t>
-  </si>
-  <si>
-    <t>1F2AG1010805</t>
-  </si>
-  <si>
-    <t>1F2AG1020101</t>
-  </si>
-  <si>
-    <t>1F2AG1020102</t>
-  </si>
-  <si>
-    <t>1F2AG1020103</t>
-  </si>
-  <si>
-    <t>1F2AG1020104</t>
-  </si>
-  <si>
-    <t>1F2AG1020105</t>
-  </si>
-  <si>
-    <t>1F2AG1020201</t>
-  </si>
-  <si>
-    <t>1F2AG1020202</t>
-  </si>
-  <si>
-    <t>1F2AG1020203</t>
-  </si>
-  <si>
-    <t>1F2AG1020204</t>
-  </si>
-  <si>
-    <t>1F2AG1020205</t>
-  </si>
-  <si>
-    <t>1F2AG1020301</t>
-  </si>
-  <si>
-    <t>1F2AG1020302</t>
-  </si>
-  <si>
-    <t>1F2AG1020303</t>
-  </si>
-  <si>
-    <t>1F2AG1020304</t>
-  </si>
-  <si>
-    <t>1F2AG1020305</t>
-  </si>
-  <si>
-    <t>1F2AG1020401</t>
-  </si>
-  <si>
-    <t>1F2AG1020402</t>
-  </si>
-  <si>
-    <t>1F2AG1020403</t>
-  </si>
-  <si>
-    <t>1F2AG1020404</t>
-  </si>
-  <si>
-    <t>1F2AG1020405</t>
-  </si>
-  <si>
-    <t>1F2AG1020501</t>
-  </si>
-  <si>
-    <t>1F2AG1020502</t>
-  </si>
-  <si>
-    <t>1F2AG1020503</t>
-  </si>
-  <si>
-    <t>1F2AG1020504</t>
-  </si>
-  <si>
-    <t>1F2AG1020505</t>
   </si>
 </sst>
 </file>
@@ -16848,10 +15351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5500"/>
+  <dimension ref="A1:B5001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5486" workbookViewId="0">
-      <selection activeCell="H5502" sqref="H5502"/>
+    <sheetView tabSelected="1" topLeftCell="A4973" workbookViewId="0">
+      <selection activeCell="H5000" sqref="H5000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56864,3998 +55367,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5002" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5002" t="s">
-        <v>5003</v>
-      </c>
-      <c r="B5002" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5003" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5003" t="s">
-        <v>5004</v>
-      </c>
-      <c r="B5003" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5004" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5004" t="s">
-        <v>5005</v>
-      </c>
-      <c r="B5004" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5005" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5005" t="s">
-        <v>5006</v>
-      </c>
-      <c r="B5005" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5006" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5006" t="s">
-        <v>5007</v>
-      </c>
-      <c r="B5006" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5007" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5007" t="s">
-        <v>5008</v>
-      </c>
-      <c r="B5007" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5008" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5008" t="s">
-        <v>5009</v>
-      </c>
-      <c r="B5008" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5009" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5009" t="s">
-        <v>5010</v>
-      </c>
-      <c r="B5009" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5010" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5010" t="s">
-        <v>5011</v>
-      </c>
-      <c r="B5010" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5011" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5011" t="s">
-        <v>5012</v>
-      </c>
-      <c r="B5011" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5012" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5012" t="s">
-        <v>5013</v>
-      </c>
-      <c r="B5012" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5013" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5013" t="s">
-        <v>5014</v>
-      </c>
-      <c r="B5013" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5014" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5014" t="s">
-        <v>5015</v>
-      </c>
-      <c r="B5014" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5015" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5015" t="s">
-        <v>5016</v>
-      </c>
-      <c r="B5015" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5016" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5016" t="s">
-        <v>5017</v>
-      </c>
-      <c r="B5016" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5017" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5017" t="s">
-        <v>5018</v>
-      </c>
-      <c r="B5017" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5018" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5018" t="s">
-        <v>5019</v>
-      </c>
-      <c r="B5018" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5019" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5019" t="s">
-        <v>5020</v>
-      </c>
-      <c r="B5019" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5020" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5020" t="s">
-        <v>5021</v>
-      </c>
-      <c r="B5020" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5021" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5021" t="s">
-        <v>5022</v>
-      </c>
-      <c r="B5021" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5022" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5022" t="s">
-        <v>5023</v>
-      </c>
-      <c r="B5022" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5023" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5023" t="s">
-        <v>5024</v>
-      </c>
-      <c r="B5023" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5024" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5024" t="s">
-        <v>5025</v>
-      </c>
-      <c r="B5024" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5025" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5025" t="s">
-        <v>5026</v>
-      </c>
-      <c r="B5025" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5026" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5026" t="s">
-        <v>5027</v>
-      </c>
-      <c r="B5026" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5027" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5027" t="s">
-        <v>5028</v>
-      </c>
-      <c r="B5027" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5028" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5028" t="s">
-        <v>5029</v>
-      </c>
-      <c r="B5028" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5029" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5029" t="s">
-        <v>5030</v>
-      </c>
-      <c r="B5029" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5030" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5030" t="s">
-        <v>5031</v>
-      </c>
-      <c r="B5030" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5031" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5031" t="s">
-        <v>5032</v>
-      </c>
-      <c r="B5031" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5032" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5032" t="s">
-        <v>5033</v>
-      </c>
-      <c r="B5032" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5033" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5033" t="s">
-        <v>5034</v>
-      </c>
-      <c r="B5033" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5034" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5034" t="s">
-        <v>5035</v>
-      </c>
-      <c r="B5034" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5035" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5035" t="s">
-        <v>5036</v>
-      </c>
-      <c r="B5035" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5036" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5036" t="s">
-        <v>5037</v>
-      </c>
-      <c r="B5036" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5037" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5037" t="s">
-        <v>5038</v>
-      </c>
-      <c r="B5037" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5038" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5038" t="s">
-        <v>5039</v>
-      </c>
-      <c r="B5038" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5039" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5039" t="s">
-        <v>5040</v>
-      </c>
-      <c r="B5039" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5040" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5040" t="s">
-        <v>5041</v>
-      </c>
-      <c r="B5040" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5041" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5041" t="s">
-        <v>5042</v>
-      </c>
-      <c r="B5041" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5042" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5042" t="s">
-        <v>5043</v>
-      </c>
-      <c r="B5042" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5043" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5043" t="s">
-        <v>5044</v>
-      </c>
-      <c r="B5043" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5044" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5044" t="s">
-        <v>5045</v>
-      </c>
-      <c r="B5044" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5045" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5045" t="s">
-        <v>5046</v>
-      </c>
-      <c r="B5045" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5046" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5046" t="s">
-        <v>5047</v>
-      </c>
-      <c r="B5046" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5047" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5047" t="s">
-        <v>5048</v>
-      </c>
-      <c r="B5047" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5048" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5048" t="s">
-        <v>5049</v>
-      </c>
-      <c r="B5048" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5049" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5049" t="s">
-        <v>5050</v>
-      </c>
-      <c r="B5049" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5050" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5050" t="s">
-        <v>5051</v>
-      </c>
-      <c r="B5050" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5051" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5051" t="s">
-        <v>5052</v>
-      </c>
-      <c r="B5051" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5052" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5052" t="s">
-        <v>5053</v>
-      </c>
-      <c r="B5052" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5053" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5053" t="s">
-        <v>5054</v>
-      </c>
-      <c r="B5053" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5054" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5054" t="s">
-        <v>5055</v>
-      </c>
-      <c r="B5054" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5055" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5055" t="s">
-        <v>5056</v>
-      </c>
-      <c r="B5055" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5056" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5056" t="s">
-        <v>5057</v>
-      </c>
-      <c r="B5056" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5057" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5057" t="s">
-        <v>5058</v>
-      </c>
-      <c r="B5057" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5058" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5058" t="s">
-        <v>5059</v>
-      </c>
-      <c r="B5058" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5059" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5059" t="s">
-        <v>5060</v>
-      </c>
-      <c r="B5059" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5060" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5060" t="s">
-        <v>5061</v>
-      </c>
-      <c r="B5060" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5061" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5061" t="s">
-        <v>5062</v>
-      </c>
-      <c r="B5061" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5062" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5062" t="s">
-        <v>5063</v>
-      </c>
-      <c r="B5062" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5063" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5063" t="s">
-        <v>5064</v>
-      </c>
-      <c r="B5063" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5064" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5064" t="s">
-        <v>5065</v>
-      </c>
-      <c r="B5064" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5065" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5065" t="s">
-        <v>5066</v>
-      </c>
-      <c r="B5065" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5066" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5066" t="s">
-        <v>5067</v>
-      </c>
-      <c r="B5066" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5067" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5067" t="s">
-        <v>5068</v>
-      </c>
-      <c r="B5067" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5068" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5068" t="s">
-        <v>5069</v>
-      </c>
-      <c r="B5068" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5069" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5069" t="s">
-        <v>5070</v>
-      </c>
-      <c r="B5069" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5070" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5070" t="s">
-        <v>5071</v>
-      </c>
-      <c r="B5070" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5071" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5071" t="s">
-        <v>5072</v>
-      </c>
-      <c r="B5071" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5072" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5072" t="s">
-        <v>5073</v>
-      </c>
-      <c r="B5072" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5073" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5073" t="s">
-        <v>5074</v>
-      </c>
-      <c r="B5073" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5074" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5074" t="s">
-        <v>5075</v>
-      </c>
-      <c r="B5074" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5075" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5075" t="s">
-        <v>5076</v>
-      </c>
-      <c r="B5075" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5076" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5076" t="s">
-        <v>5077</v>
-      </c>
-      <c r="B5076" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5077" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5077" t="s">
-        <v>5078</v>
-      </c>
-      <c r="B5077" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5078" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5078" t="s">
-        <v>5079</v>
-      </c>
-      <c r="B5078" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5079" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5079" t="s">
-        <v>5080</v>
-      </c>
-      <c r="B5079" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5080" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5080" t="s">
-        <v>5081</v>
-      </c>
-      <c r="B5080" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5081" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5081" t="s">
-        <v>5082</v>
-      </c>
-      <c r="B5081" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5082" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5082" t="s">
-        <v>5083</v>
-      </c>
-      <c r="B5082" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5083" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5083" t="s">
-        <v>5084</v>
-      </c>
-      <c r="B5083" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5084" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5084" t="s">
-        <v>5085</v>
-      </c>
-      <c r="B5084" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5085" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5085" t="s">
-        <v>5086</v>
-      </c>
-      <c r="B5085" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5086" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5086" t="s">
-        <v>5087</v>
-      </c>
-      <c r="B5086" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5087" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5087" t="s">
-        <v>5088</v>
-      </c>
-      <c r="B5087" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5088" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5088" t="s">
-        <v>5089</v>
-      </c>
-      <c r="B5088" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5089" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5089" t="s">
-        <v>5090</v>
-      </c>
-      <c r="B5089" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5090" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5090" t="s">
-        <v>5091</v>
-      </c>
-      <c r="B5090" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5091" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5091" t="s">
-        <v>5092</v>
-      </c>
-      <c r="B5091" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5092" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5092" t="s">
-        <v>5093</v>
-      </c>
-      <c r="B5092" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5093" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5093" t="s">
-        <v>5094</v>
-      </c>
-      <c r="B5093" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5094" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5094" t="s">
-        <v>5095</v>
-      </c>
-      <c r="B5094" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5095" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5095" t="s">
-        <v>5096</v>
-      </c>
-      <c r="B5095" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5096" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5096" t="s">
-        <v>5097</v>
-      </c>
-      <c r="B5096" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5097" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5097" t="s">
-        <v>5098</v>
-      </c>
-      <c r="B5097" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5098" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5098" t="s">
-        <v>5099</v>
-      </c>
-      <c r="B5098" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5099" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5099" t="s">
-        <v>5100</v>
-      </c>
-      <c r="B5099" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5100" t="s">
-        <v>5101</v>
-      </c>
-      <c r="B5100" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5101" t="s">
-        <v>5102</v>
-      </c>
-      <c r="B5101" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5102" t="s">
-        <v>5103</v>
-      </c>
-      <c r="B5102" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5103" t="s">
-        <v>5104</v>
-      </c>
-      <c r="B5103" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5104" t="s">
-        <v>5105</v>
-      </c>
-      <c r="B5104" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5105" t="s">
-        <v>5106</v>
-      </c>
-      <c r="B5105" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5106" t="s">
-        <v>5107</v>
-      </c>
-      <c r="B5106" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5107" t="s">
-        <v>5108</v>
-      </c>
-      <c r="B5107" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5108" t="s">
-        <v>5109</v>
-      </c>
-      <c r="B5108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5109" t="s">
-        <v>5110</v>
-      </c>
-      <c r="B5109" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5110" t="s">
-        <v>5111</v>
-      </c>
-      <c r="B5110" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5111" t="s">
-        <v>5112</v>
-      </c>
-      <c r="B5111" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5112" t="s">
-        <v>5113</v>
-      </c>
-      <c r="B5112" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5113" t="s">
-        <v>5114</v>
-      </c>
-      <c r="B5113" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5114" t="s">
-        <v>5115</v>
-      </c>
-      <c r="B5114" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5115" t="s">
-        <v>5116</v>
-      </c>
-      <c r="B5115" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5116" t="s">
-        <v>5117</v>
-      </c>
-      <c r="B5116" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5117" t="s">
-        <v>5118</v>
-      </c>
-      <c r="B5117" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5118" t="s">
-        <v>5119</v>
-      </c>
-      <c r="B5118" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5119" t="s">
-        <v>5120</v>
-      </c>
-      <c r="B5119" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5120" t="s">
-        <v>5121</v>
-      </c>
-      <c r="B5120" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5121" t="s">
-        <v>5122</v>
-      </c>
-      <c r="B5121" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5122" t="s">
-        <v>5123</v>
-      </c>
-      <c r="B5122" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5123" t="s">
-        <v>5124</v>
-      </c>
-      <c r="B5123" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5124" t="s">
-        <v>5125</v>
-      </c>
-      <c r="B5124" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5125" t="s">
-        <v>5126</v>
-      </c>
-      <c r="B5125" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5126" t="s">
-        <v>5127</v>
-      </c>
-      <c r="B5126" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5127" t="s">
-        <v>5128</v>
-      </c>
-      <c r="B5127" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5128" t="s">
-        <v>5129</v>
-      </c>
-      <c r="B5128" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5129" t="s">
-        <v>5130</v>
-      </c>
-      <c r="B5129" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5130" t="s">
-        <v>5131</v>
-      </c>
-      <c r="B5130" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5131" t="s">
-        <v>5132</v>
-      </c>
-      <c r="B5131" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5132" t="s">
-        <v>5133</v>
-      </c>
-      <c r="B5132" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5133" t="s">
-        <v>5134</v>
-      </c>
-      <c r="B5133" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5134" t="s">
-        <v>5135</v>
-      </c>
-      <c r="B5134" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5135" t="s">
-        <v>5136</v>
-      </c>
-      <c r="B5135" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5136" t="s">
-        <v>5137</v>
-      </c>
-      <c r="B5136" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5137" t="s">
-        <v>5138</v>
-      </c>
-      <c r="B5137" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5138" t="s">
-        <v>5139</v>
-      </c>
-      <c r="B5138" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5139" t="s">
-        <v>5140</v>
-      </c>
-      <c r="B5139" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5140" t="s">
-        <v>5141</v>
-      </c>
-      <c r="B5140" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5141" t="s">
-        <v>5142</v>
-      </c>
-      <c r="B5141" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5142" t="s">
-        <v>5143</v>
-      </c>
-      <c r="B5142" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5143" t="s">
-        <v>5144</v>
-      </c>
-      <c r="B5143" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5144" t="s">
-        <v>5145</v>
-      </c>
-      <c r="B5144" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5145" t="s">
-        <v>5146</v>
-      </c>
-      <c r="B5145" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5146" t="s">
-        <v>5147</v>
-      </c>
-      <c r="B5146" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5147" t="s">
-        <v>5148</v>
-      </c>
-      <c r="B5147" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5148" t="s">
-        <v>5149</v>
-      </c>
-      <c r="B5148" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5149" t="s">
-        <v>5150</v>
-      </c>
-      <c r="B5149" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5150" t="s">
-        <v>5151</v>
-      </c>
-      <c r="B5150" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5151" t="s">
-        <v>5152</v>
-      </c>
-      <c r="B5151" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5152" t="s">
-        <v>5153</v>
-      </c>
-      <c r="B5152" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5153" t="s">
-        <v>5154</v>
-      </c>
-      <c r="B5153" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5154" t="s">
-        <v>5155</v>
-      </c>
-      <c r="B5154" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5155" t="s">
-        <v>5156</v>
-      </c>
-      <c r="B5155" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5156" t="s">
-        <v>5157</v>
-      </c>
-      <c r="B5156" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5157" t="s">
-        <v>5158</v>
-      </c>
-      <c r="B5157" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5158" t="s">
-        <v>5159</v>
-      </c>
-      <c r="B5158" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5159" t="s">
-        <v>5160</v>
-      </c>
-      <c r="B5159" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5160" t="s">
-        <v>5161</v>
-      </c>
-      <c r="B5160" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5161" t="s">
-        <v>5162</v>
-      </c>
-      <c r="B5161" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5162" t="s">
-        <v>5163</v>
-      </c>
-      <c r="B5162" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5163" t="s">
-        <v>5164</v>
-      </c>
-      <c r="B5163" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5164" t="s">
-        <v>5165</v>
-      </c>
-      <c r="B5164" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5165" t="s">
-        <v>5166</v>
-      </c>
-      <c r="B5165" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5166" t="s">
-        <v>5167</v>
-      </c>
-      <c r="B5166" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5167" t="s">
-        <v>5168</v>
-      </c>
-      <c r="B5167" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5168" t="s">
-        <v>5169</v>
-      </c>
-      <c r="B5168" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5169" t="s">
-        <v>5170</v>
-      </c>
-      <c r="B5169" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5170" t="s">
-        <v>5171</v>
-      </c>
-      <c r="B5170" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5171" t="s">
-        <v>5172</v>
-      </c>
-      <c r="B5171" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5172" t="s">
-        <v>5173</v>
-      </c>
-      <c r="B5172" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5173" t="s">
-        <v>5174</v>
-      </c>
-      <c r="B5173" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5174" t="s">
-        <v>5175</v>
-      </c>
-      <c r="B5174" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5175" t="s">
-        <v>5176</v>
-      </c>
-      <c r="B5175" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5176" t="s">
-        <v>5177</v>
-      </c>
-      <c r="B5176" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5177" t="s">
-        <v>5178</v>
-      </c>
-      <c r="B5177" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5178" t="s">
-        <v>5179</v>
-      </c>
-      <c r="B5178" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5179" t="s">
-        <v>5180</v>
-      </c>
-      <c r="B5179" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5180" t="s">
-        <v>5181</v>
-      </c>
-      <c r="B5180" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5181" t="s">
-        <v>5182</v>
-      </c>
-      <c r="B5181" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5182" t="s">
-        <v>5183</v>
-      </c>
-      <c r="B5182" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5183" t="s">
-        <v>5184</v>
-      </c>
-      <c r="B5183" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5184" t="s">
-        <v>5185</v>
-      </c>
-      <c r="B5184" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5185" t="s">
-        <v>5186</v>
-      </c>
-      <c r="B5185" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5186" t="s">
-        <v>5187</v>
-      </c>
-      <c r="B5186" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5187" t="s">
-        <v>5188</v>
-      </c>
-      <c r="B5187" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5188" t="s">
-        <v>5189</v>
-      </c>
-      <c r="B5188" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5189" t="s">
-        <v>5190</v>
-      </c>
-      <c r="B5189" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5190" t="s">
-        <v>5191</v>
-      </c>
-      <c r="B5190" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5191" t="s">
-        <v>5192</v>
-      </c>
-      <c r="B5191" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5192" t="s">
-        <v>5193</v>
-      </c>
-      <c r="B5192" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5193" t="s">
-        <v>5194</v>
-      </c>
-      <c r="B5193" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5194" t="s">
-        <v>5195</v>
-      </c>
-      <c r="B5194" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5195" t="s">
-        <v>5196</v>
-      </c>
-      <c r="B5195" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5196" t="s">
-        <v>5197</v>
-      </c>
-      <c r="B5196" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5197" t="s">
-        <v>5198</v>
-      </c>
-      <c r="B5197" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5198" t="s">
-        <v>5199</v>
-      </c>
-      <c r="B5198" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5199" t="s">
-        <v>5200</v>
-      </c>
-      <c r="B5199" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5200" t="s">
-        <v>5201</v>
-      </c>
-      <c r="B5200" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5201" t="s">
-        <v>5202</v>
-      </c>
-      <c r="B5201" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5202" t="s">
-        <v>5203</v>
-      </c>
-      <c r="B5202" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5203" t="s">
-        <v>5204</v>
-      </c>
-      <c r="B5203" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5204" t="s">
-        <v>5205</v>
-      </c>
-      <c r="B5204" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5205" t="s">
-        <v>5206</v>
-      </c>
-      <c r="B5205" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5206" t="s">
-        <v>5207</v>
-      </c>
-      <c r="B5206" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5207" t="s">
-        <v>5208</v>
-      </c>
-      <c r="B5207" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5208" t="s">
-        <v>5209</v>
-      </c>
-      <c r="B5208" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5209" t="s">
-        <v>5210</v>
-      </c>
-      <c r="B5209" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5210" t="s">
-        <v>5211</v>
-      </c>
-      <c r="B5210" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5211" t="s">
-        <v>5212</v>
-      </c>
-      <c r="B5211" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5212" t="s">
-        <v>5213</v>
-      </c>
-      <c r="B5212" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5213" t="s">
-        <v>5214</v>
-      </c>
-      <c r="B5213" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5214" t="s">
-        <v>5215</v>
-      </c>
-      <c r="B5214" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5215" t="s">
-        <v>5216</v>
-      </c>
-      <c r="B5215" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5216" t="s">
-        <v>5217</v>
-      </c>
-      <c r="B5216" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5217" t="s">
-        <v>5218</v>
-      </c>
-      <c r="B5217" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5218" t="s">
-        <v>5219</v>
-      </c>
-      <c r="B5218" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5219" t="s">
-        <v>5220</v>
-      </c>
-      <c r="B5219" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5220" t="s">
-        <v>5221</v>
-      </c>
-      <c r="B5220" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5221" t="s">
-        <v>5222</v>
-      </c>
-      <c r="B5221" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5222" t="s">
-        <v>5223</v>
-      </c>
-      <c r="B5222" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5223" t="s">
-        <v>5224</v>
-      </c>
-      <c r="B5223" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5224" t="s">
-        <v>5225</v>
-      </c>
-      <c r="B5224" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5225" t="s">
-        <v>5226</v>
-      </c>
-      <c r="B5225" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5226" t="s">
-        <v>5227</v>
-      </c>
-      <c r="B5226" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5227" t="s">
-        <v>5228</v>
-      </c>
-      <c r="B5227" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5228" t="s">
-        <v>5229</v>
-      </c>
-      <c r="B5228" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5229" t="s">
-        <v>5230</v>
-      </c>
-      <c r="B5229" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5230" t="s">
-        <v>5231</v>
-      </c>
-      <c r="B5230" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5231" t="s">
-        <v>5232</v>
-      </c>
-      <c r="B5231" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5232" t="s">
-        <v>5233</v>
-      </c>
-      <c r="B5232" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5233" t="s">
-        <v>5234</v>
-      </c>
-      <c r="B5233" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5234" t="s">
-        <v>5235</v>
-      </c>
-      <c r="B5234" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5235" t="s">
-        <v>5236</v>
-      </c>
-      <c r="B5235" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5236" t="s">
-        <v>5237</v>
-      </c>
-      <c r="B5236" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5237" t="s">
-        <v>5238</v>
-      </c>
-      <c r="B5237" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5238" t="s">
-        <v>5239</v>
-      </c>
-      <c r="B5238" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5239" t="s">
-        <v>5240</v>
-      </c>
-      <c r="B5239" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5240" t="s">
-        <v>5241</v>
-      </c>
-      <c r="B5240" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5241" t="s">
-        <v>5242</v>
-      </c>
-      <c r="B5241" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5242" t="s">
-        <v>5243</v>
-      </c>
-      <c r="B5242" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5243" t="s">
-        <v>5244</v>
-      </c>
-      <c r="B5243" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5244" t="s">
-        <v>5245</v>
-      </c>
-      <c r="B5244" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5245" t="s">
-        <v>5246</v>
-      </c>
-      <c r="B5245" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5246" t="s">
-        <v>5247</v>
-      </c>
-      <c r="B5246" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5247" t="s">
-        <v>5248</v>
-      </c>
-      <c r="B5247" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5248" t="s">
-        <v>5249</v>
-      </c>
-      <c r="B5248" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5249" t="s">
-        <v>5250</v>
-      </c>
-      <c r="B5249" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5250" t="s">
-        <v>5251</v>
-      </c>
-      <c r="B5250" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5251" t="s">
-        <v>5252</v>
-      </c>
-      <c r="B5251" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5252" t="s">
-        <v>5253</v>
-      </c>
-      <c r="B5252" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5253" t="s">
-        <v>5254</v>
-      </c>
-      <c r="B5253" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5254" t="s">
-        <v>5255</v>
-      </c>
-      <c r="B5254" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5255" t="s">
-        <v>5256</v>
-      </c>
-      <c r="B5255" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5256" t="s">
-        <v>5257</v>
-      </c>
-      <c r="B5256" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5257" t="s">
-        <v>5258</v>
-      </c>
-      <c r="B5257" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5258" t="s">
-        <v>5259</v>
-      </c>
-      <c r="B5258" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5259" t="s">
-        <v>5260</v>
-      </c>
-      <c r="B5259" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5260" t="s">
-        <v>5261</v>
-      </c>
-      <c r="B5260" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5261" t="s">
-        <v>5262</v>
-      </c>
-      <c r="B5261" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5262" t="s">
-        <v>5263</v>
-      </c>
-      <c r="B5262" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5263" t="s">
-        <v>5264</v>
-      </c>
-      <c r="B5263" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5264" t="s">
-        <v>5265</v>
-      </c>
-      <c r="B5264" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5265" t="s">
-        <v>5266</v>
-      </c>
-      <c r="B5265" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5266" t="s">
-        <v>5267</v>
-      </c>
-      <c r="B5266" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5267" t="s">
-        <v>5268</v>
-      </c>
-      <c r="B5267" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5268" t="s">
-        <v>5269</v>
-      </c>
-      <c r="B5268" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5269" t="s">
-        <v>5270</v>
-      </c>
-      <c r="B5269" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5270" t="s">
-        <v>5271</v>
-      </c>
-      <c r="B5270" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5271" t="s">
-        <v>5272</v>
-      </c>
-      <c r="B5271" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5272" t="s">
-        <v>5273</v>
-      </c>
-      <c r="B5272" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5273" t="s">
-        <v>5274</v>
-      </c>
-      <c r="B5273" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5274" t="s">
-        <v>5275</v>
-      </c>
-      <c r="B5274" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5275" t="s">
-        <v>5276</v>
-      </c>
-      <c r="B5275" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5276" t="s">
-        <v>5277</v>
-      </c>
-      <c r="B5276" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5277" t="s">
-        <v>5278</v>
-      </c>
-      <c r="B5277" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5278" t="s">
-        <v>5279</v>
-      </c>
-      <c r="B5278" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5279" t="s">
-        <v>5280</v>
-      </c>
-      <c r="B5279" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5280" t="s">
-        <v>5281</v>
-      </c>
-      <c r="B5280" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5281" t="s">
-        <v>5282</v>
-      </c>
-      <c r="B5281" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5282" t="s">
-        <v>5283</v>
-      </c>
-      <c r="B5282" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5283" t="s">
-        <v>5284</v>
-      </c>
-      <c r="B5283" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5284" t="s">
-        <v>5285</v>
-      </c>
-      <c r="B5284" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5285" t="s">
-        <v>5286</v>
-      </c>
-      <c r="B5285" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5286" t="s">
-        <v>5287</v>
-      </c>
-      <c r="B5286" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5287" t="s">
-        <v>5288</v>
-      </c>
-      <c r="B5287" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5288" t="s">
-        <v>5289</v>
-      </c>
-      <c r="B5288" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5289" t="s">
-        <v>5290</v>
-      </c>
-      <c r="B5289" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5290" t="s">
-        <v>5291</v>
-      </c>
-      <c r="B5290" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5291" t="s">
-        <v>5292</v>
-      </c>
-      <c r="B5291" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5292" t="s">
-        <v>5293</v>
-      </c>
-      <c r="B5292" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5293" t="s">
-        <v>5294</v>
-      </c>
-      <c r="B5293" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5294" t="s">
-        <v>5295</v>
-      </c>
-      <c r="B5294" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5295" t="s">
-        <v>5296</v>
-      </c>
-      <c r="B5295" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5296" t="s">
-        <v>5297</v>
-      </c>
-      <c r="B5296" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5297" t="s">
-        <v>5298</v>
-      </c>
-      <c r="B5297" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5298" t="s">
-        <v>5299</v>
-      </c>
-      <c r="B5298" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5299" t="s">
-        <v>5300</v>
-      </c>
-      <c r="B5299" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5300" t="s">
-        <v>5301</v>
-      </c>
-      <c r="B5300" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5301" t="s">
-        <v>5302</v>
-      </c>
-      <c r="B5301" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5302" t="s">
-        <v>5303</v>
-      </c>
-      <c r="B5302" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5303" t="s">
-        <v>5304</v>
-      </c>
-      <c r="B5303" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5304" t="s">
-        <v>5305</v>
-      </c>
-      <c r="B5304" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5305" t="s">
-        <v>5306</v>
-      </c>
-      <c r="B5305" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5306" t="s">
-        <v>5307</v>
-      </c>
-      <c r="B5306" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5307" t="s">
-        <v>5308</v>
-      </c>
-      <c r="B5307" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5308" t="s">
-        <v>5309</v>
-      </c>
-      <c r="B5308" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5309" t="s">
-        <v>5310</v>
-      </c>
-      <c r="B5309" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5310" t="s">
-        <v>5311</v>
-      </c>
-      <c r="B5310" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5311" t="s">
-        <v>5312</v>
-      </c>
-      <c r="B5311" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5312" t="s">
-        <v>5313</v>
-      </c>
-      <c r="B5312" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5313" t="s">
-        <v>5314</v>
-      </c>
-      <c r="B5313" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5314" t="s">
-        <v>5315</v>
-      </c>
-      <c r="B5314" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5315" t="s">
-        <v>5316</v>
-      </c>
-      <c r="B5315" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5316" t="s">
-        <v>5317</v>
-      </c>
-      <c r="B5316" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5317" t="s">
-        <v>5318</v>
-      </c>
-      <c r="B5317" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5318" t="s">
-        <v>5319</v>
-      </c>
-      <c r="B5318" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5319" t="s">
-        <v>5320</v>
-      </c>
-      <c r="B5319" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5320" t="s">
-        <v>5321</v>
-      </c>
-      <c r="B5320" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5321" t="s">
-        <v>5322</v>
-      </c>
-      <c r="B5321" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5322" t="s">
-        <v>5323</v>
-      </c>
-      <c r="B5322" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5323" t="s">
-        <v>5324</v>
-      </c>
-      <c r="B5323" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5324" t="s">
-        <v>5325</v>
-      </c>
-      <c r="B5324" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5325" t="s">
-        <v>5326</v>
-      </c>
-      <c r="B5325" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5326" t="s">
-        <v>5327</v>
-      </c>
-      <c r="B5326" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5327" t="s">
-        <v>5328</v>
-      </c>
-      <c r="B5327" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5328" t="s">
-        <v>5329</v>
-      </c>
-      <c r="B5328" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5329" t="s">
-        <v>5330</v>
-      </c>
-      <c r="B5329" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5330" t="s">
-        <v>5331</v>
-      </c>
-      <c r="B5330" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5331" t="s">
-        <v>5332</v>
-      </c>
-      <c r="B5331" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5332" t="s">
-        <v>5333</v>
-      </c>
-      <c r="B5332" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5333" t="s">
-        <v>5334</v>
-      </c>
-      <c r="B5333" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5334" t="s">
-        <v>5335</v>
-      </c>
-      <c r="B5334" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5335" t="s">
-        <v>5336</v>
-      </c>
-      <c r="B5335" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5336" t="s">
-        <v>5337</v>
-      </c>
-      <c r="B5336" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5337" t="s">
-        <v>5338</v>
-      </c>
-      <c r="B5337" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5338" t="s">
-        <v>5339</v>
-      </c>
-      <c r="B5338" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5339" t="s">
-        <v>5340</v>
-      </c>
-      <c r="B5339" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5340" t="s">
-        <v>5341</v>
-      </c>
-      <c r="B5340" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5341" t="s">
-        <v>5342</v>
-      </c>
-      <c r="B5341" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5342" t="s">
-        <v>5343</v>
-      </c>
-      <c r="B5342" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5343" t="s">
-        <v>5344</v>
-      </c>
-      <c r="B5343" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5344" t="s">
-        <v>5345</v>
-      </c>
-      <c r="B5344" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5345" t="s">
-        <v>5346</v>
-      </c>
-      <c r="B5345" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5346" t="s">
-        <v>5347</v>
-      </c>
-      <c r="B5346" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5347" t="s">
-        <v>5348</v>
-      </c>
-      <c r="B5347" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5348" t="s">
-        <v>5349</v>
-      </c>
-      <c r="B5348" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5349" t="s">
-        <v>5350</v>
-      </c>
-      <c r="B5349" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5350" t="s">
-        <v>5351</v>
-      </c>
-      <c r="B5350" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5351" t="s">
-        <v>5352</v>
-      </c>
-      <c r="B5351" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5352" t="s">
-        <v>5353</v>
-      </c>
-      <c r="B5352" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5353" t="s">
-        <v>5354</v>
-      </c>
-      <c r="B5353" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5354" t="s">
-        <v>5355</v>
-      </c>
-      <c r="B5354" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5355" t="s">
-        <v>5356</v>
-      </c>
-      <c r="B5355" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5356" t="s">
-        <v>5357</v>
-      </c>
-      <c r="B5356" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5357" t="s">
-        <v>5358</v>
-      </c>
-      <c r="B5357" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5358" t="s">
-        <v>5359</v>
-      </c>
-      <c r="B5358" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5359" t="s">
-        <v>5360</v>
-      </c>
-      <c r="B5359" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5360" t="s">
-        <v>5361</v>
-      </c>
-      <c r="B5360" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5361" t="s">
-        <v>5362</v>
-      </c>
-      <c r="B5361" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5362" t="s">
-        <v>5363</v>
-      </c>
-      <c r="B5362" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5363" t="s">
-        <v>5364</v>
-      </c>
-      <c r="B5363" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5364" t="s">
-        <v>5365</v>
-      </c>
-      <c r="B5364" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5365" t="s">
-        <v>5366</v>
-      </c>
-      <c r="B5365" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5366" t="s">
-        <v>5367</v>
-      </c>
-      <c r="B5366" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5367" t="s">
-        <v>5368</v>
-      </c>
-      <c r="B5367" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5368" t="s">
-        <v>5369</v>
-      </c>
-      <c r="B5368" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5369" t="s">
-        <v>5370</v>
-      </c>
-      <c r="B5369" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5370" t="s">
-        <v>5371</v>
-      </c>
-      <c r="B5370" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5371" t="s">
-        <v>5372</v>
-      </c>
-      <c r="B5371" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5372" t="s">
-        <v>5373</v>
-      </c>
-      <c r="B5372" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5373" t="s">
-        <v>5374</v>
-      </c>
-      <c r="B5373" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5374" t="s">
-        <v>5375</v>
-      </c>
-      <c r="B5374" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5375" t="s">
-        <v>5376</v>
-      </c>
-      <c r="B5375" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5376" t="s">
-        <v>5377</v>
-      </c>
-      <c r="B5376" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5377" t="s">
-        <v>5378</v>
-      </c>
-      <c r="B5377" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5378" t="s">
-        <v>5379</v>
-      </c>
-      <c r="B5378" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5379" t="s">
-        <v>5380</v>
-      </c>
-      <c r="B5379" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5380" t="s">
-        <v>5381</v>
-      </c>
-      <c r="B5380" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5381" t="s">
-        <v>5382</v>
-      </c>
-      <c r="B5381" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5382" t="s">
-        <v>5383</v>
-      </c>
-      <c r="B5382" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5383" t="s">
-        <v>5384</v>
-      </c>
-      <c r="B5383" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5384" t="s">
-        <v>5385</v>
-      </c>
-      <c r="B5384" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5385" t="s">
-        <v>5386</v>
-      </c>
-      <c r="B5385" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5386" t="s">
-        <v>5387</v>
-      </c>
-      <c r="B5386" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5387" t="s">
-        <v>5388</v>
-      </c>
-      <c r="B5387" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5388" t="s">
-        <v>5389</v>
-      </c>
-      <c r="B5388" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5389" t="s">
-        <v>5390</v>
-      </c>
-      <c r="B5389" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5390" t="s">
-        <v>5391</v>
-      </c>
-      <c r="B5390" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5391" t="s">
-        <v>5392</v>
-      </c>
-      <c r="B5391" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5392" t="s">
-        <v>5393</v>
-      </c>
-      <c r="B5392" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5393" t="s">
-        <v>5394</v>
-      </c>
-      <c r="B5393" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5394" t="s">
-        <v>5395</v>
-      </c>
-      <c r="B5394" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5395" t="s">
-        <v>5396</v>
-      </c>
-      <c r="B5395" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5396" t="s">
-        <v>5397</v>
-      </c>
-      <c r="B5396" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5397" t="s">
-        <v>5398</v>
-      </c>
-      <c r="B5397" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5398" t="s">
-        <v>5399</v>
-      </c>
-      <c r="B5398" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5399" t="s">
-        <v>5400</v>
-      </c>
-      <c r="B5399" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5400" t="s">
-        <v>5401</v>
-      </c>
-      <c r="B5400" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5401" t="s">
-        <v>5402</v>
-      </c>
-      <c r="B5401" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5402" t="s">
-        <v>5403</v>
-      </c>
-      <c r="B5402" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5403" t="s">
-        <v>5404</v>
-      </c>
-      <c r="B5403" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5404" t="s">
-        <v>5405</v>
-      </c>
-      <c r="B5404" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5405" t="s">
-        <v>5406</v>
-      </c>
-      <c r="B5405" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5406" t="s">
-        <v>5407</v>
-      </c>
-      <c r="B5406" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5407" t="s">
-        <v>5408</v>
-      </c>
-      <c r="B5407" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5408" t="s">
-        <v>5409</v>
-      </c>
-      <c r="B5408" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5409" t="s">
-        <v>5410</v>
-      </c>
-      <c r="B5409" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5410" t="s">
-        <v>5411</v>
-      </c>
-      <c r="B5410" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5411" t="s">
-        <v>5412</v>
-      </c>
-      <c r="B5411" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5412" t="s">
-        <v>5413</v>
-      </c>
-      <c r="B5412" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5413" t="s">
-        <v>5414</v>
-      </c>
-      <c r="B5413" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5414" t="s">
-        <v>5415</v>
-      </c>
-      <c r="B5414" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5415" t="s">
-        <v>5416</v>
-      </c>
-      <c r="B5415" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5416" t="s">
-        <v>5417</v>
-      </c>
-      <c r="B5416" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5417" t="s">
-        <v>5418</v>
-      </c>
-      <c r="B5417" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5418" t="s">
-        <v>5419</v>
-      </c>
-      <c r="B5418" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5419" t="s">
-        <v>5420</v>
-      </c>
-      <c r="B5419" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5420" t="s">
-        <v>5421</v>
-      </c>
-      <c r="B5420" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5421" t="s">
-        <v>5422</v>
-      </c>
-      <c r="B5421" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5422" t="s">
-        <v>5423</v>
-      </c>
-      <c r="B5422" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5423" t="s">
-        <v>5424</v>
-      </c>
-      <c r="B5423" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5424" t="s">
-        <v>5425</v>
-      </c>
-      <c r="B5424" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5425" t="s">
-        <v>5426</v>
-      </c>
-      <c r="B5425" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5426" t="s">
-        <v>5427</v>
-      </c>
-      <c r="B5426" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5427" t="s">
-        <v>5428</v>
-      </c>
-      <c r="B5427" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5428" t="s">
-        <v>5429</v>
-      </c>
-      <c r="B5428" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5429" t="s">
-        <v>5430</v>
-      </c>
-      <c r="B5429" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5430" t="s">
-        <v>5431</v>
-      </c>
-      <c r="B5430" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5431" t="s">
-        <v>5432</v>
-      </c>
-      <c r="B5431" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5432" t="s">
-        <v>5433</v>
-      </c>
-      <c r="B5432" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5433" t="s">
-        <v>5434</v>
-      </c>
-      <c r="B5433" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5434" t="s">
-        <v>5435</v>
-      </c>
-      <c r="B5434" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5435" t="s">
-        <v>5436</v>
-      </c>
-      <c r="B5435" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5436" t="s">
-        <v>5437</v>
-      </c>
-      <c r="B5436" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5437" t="s">
-        <v>5438</v>
-      </c>
-      <c r="B5437" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5438" t="s">
-        <v>5439</v>
-      </c>
-      <c r="B5438" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5439" t="s">
-        <v>5440</v>
-      </c>
-      <c r="B5439" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5440" t="s">
-        <v>5441</v>
-      </c>
-      <c r="B5440" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5441" t="s">
-        <v>5442</v>
-      </c>
-      <c r="B5441" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5442" t="s">
-        <v>5443</v>
-      </c>
-      <c r="B5442" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5443" t="s">
-        <v>5444</v>
-      </c>
-      <c r="B5443" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5444" t="s">
-        <v>5445</v>
-      </c>
-      <c r="B5444" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5445" t="s">
-        <v>5446</v>
-      </c>
-      <c r="B5445" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5446" t="s">
-        <v>5447</v>
-      </c>
-      <c r="B5446" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5447" t="s">
-        <v>5448</v>
-      </c>
-      <c r="B5447" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5448" t="s">
-        <v>5449</v>
-      </c>
-      <c r="B5448" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5449" t="s">
-        <v>5450</v>
-      </c>
-      <c r="B5449" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5450" t="s">
-        <v>5451</v>
-      </c>
-      <c r="B5450" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5451" t="s">
-        <v>5452</v>
-      </c>
-      <c r="B5451" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5452" t="s">
-        <v>5453</v>
-      </c>
-      <c r="B5452" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5453" t="s">
-        <v>5454</v>
-      </c>
-      <c r="B5453" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5454" t="s">
-        <v>5455</v>
-      </c>
-      <c r="B5454" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5455" t="s">
-        <v>5456</v>
-      </c>
-      <c r="B5455" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5456" t="s">
-        <v>5457</v>
-      </c>
-      <c r="B5456" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5457" t="s">
-        <v>5458</v>
-      </c>
-      <c r="B5457" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5458" t="s">
-        <v>5459</v>
-      </c>
-      <c r="B5458" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5459" t="s">
-        <v>5460</v>
-      </c>
-      <c r="B5459" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5460" t="s">
-        <v>5461</v>
-      </c>
-      <c r="B5460" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5461" t="s">
-        <v>5462</v>
-      </c>
-      <c r="B5461" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5462" t="s">
-        <v>5463</v>
-      </c>
-      <c r="B5462" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5463" t="s">
-        <v>5464</v>
-      </c>
-      <c r="B5463" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5464" t="s">
-        <v>5465</v>
-      </c>
-      <c r="B5464" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5465" t="s">
-        <v>5466</v>
-      </c>
-      <c r="B5465" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5466" t="s">
-        <v>5467</v>
-      </c>
-      <c r="B5466" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5467" t="s">
-        <v>5468</v>
-      </c>
-      <c r="B5467" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5468" t="s">
-        <v>5469</v>
-      </c>
-      <c r="B5468" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5469" t="s">
-        <v>5470</v>
-      </c>
-      <c r="B5469" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5470" t="s">
-        <v>5471</v>
-      </c>
-      <c r="B5470" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5471" t="s">
-        <v>5472</v>
-      </c>
-      <c r="B5471" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5472" t="s">
-        <v>5473</v>
-      </c>
-      <c r="B5472" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5473" t="s">
-        <v>5474</v>
-      </c>
-      <c r="B5473" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5474" t="s">
-        <v>5475</v>
-      </c>
-      <c r="B5474" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5475" t="s">
-        <v>5476</v>
-      </c>
-      <c r="B5475" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5476" t="s">
-        <v>5477</v>
-      </c>
-      <c r="B5476" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5477" t="s">
-        <v>5478</v>
-      </c>
-      <c r="B5477" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5478" t="s">
-        <v>5479</v>
-      </c>
-      <c r="B5478" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5479" t="s">
-        <v>5480</v>
-      </c>
-      <c r="B5479" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5480" t="s">
-        <v>5481</v>
-      </c>
-      <c r="B5480" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5481" t="s">
-        <v>5482</v>
-      </c>
-      <c r="B5481" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5482" t="s">
-        <v>5483</v>
-      </c>
-      <c r="B5482" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5483" t="s">
-        <v>5484</v>
-      </c>
-      <c r="B5483" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5484" t="s">
-        <v>5485</v>
-      </c>
-      <c r="B5484" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5485" t="s">
-        <v>5486</v>
-      </c>
-      <c r="B5485" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5486" t="s">
-        <v>5487</v>
-      </c>
-      <c r="B5486" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5487" t="s">
-        <v>5488</v>
-      </c>
-      <c r="B5487" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5488" t="s">
-        <v>5489</v>
-      </c>
-      <c r="B5488" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5489" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5489" t="s">
-        <v>5490</v>
-      </c>
-      <c r="B5489" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5490" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5490" t="s">
-        <v>5491</v>
-      </c>
-      <c r="B5490" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5491" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5491" t="s">
-        <v>5492</v>
-      </c>
-      <c r="B5491" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5492" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5492" t="s">
-        <v>5493</v>
-      </c>
-      <c r="B5492" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5493" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5493" t="s">
-        <v>5494</v>
-      </c>
-      <c r="B5493" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5494" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5494" t="s">
-        <v>5495</v>
-      </c>
-      <c r="B5494" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5495" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5495" t="s">
-        <v>5496</v>
-      </c>
-      <c r="B5495" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5496" t="s">
-        <v>5497</v>
-      </c>
-      <c r="B5496" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5497" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5497" t="s">
-        <v>5498</v>
-      </c>
-      <c r="B5497" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5498" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5498" t="s">
-        <v>5499</v>
-      </c>
-      <c r="B5498" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5499" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5499" t="s">
-        <v>5500</v>
-      </c>
-      <c r="B5499" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5500" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5500" t="s">
-        <v>5501</v>
-      </c>
-      <c r="B5500" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book.xlsx
+++ b/Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32238BD7-13CA-4DC6-A6DE-16BF5721A24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA6FE97-A32B-4317-9639-8E9E44CDE356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10001" uniqueCount="5003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9001" uniqueCount="4503">
   <si>
     <t>LOCATION_ID</t>
   </si>
@@ -13534,1506 +13534,6 @@
   </si>
   <si>
     <t>1F2AE1050601</t>
-  </si>
-  <si>
-    <t>1F2AE1050602</t>
-  </si>
-  <si>
-    <t>1F2AE1050603</t>
-  </si>
-  <si>
-    <t>1F2AE1050604</t>
-  </si>
-  <si>
-    <t>1F2AE1050605</t>
-  </si>
-  <si>
-    <t>1F2AE1050701</t>
-  </si>
-  <si>
-    <t>1F2AE1050702</t>
-  </si>
-  <si>
-    <t>1F2AE1050703</t>
-  </si>
-  <si>
-    <t>1F2AE1050704</t>
-  </si>
-  <si>
-    <t>1F2AE1050705</t>
-  </si>
-  <si>
-    <t>1F2AE1050801</t>
-  </si>
-  <si>
-    <t>1F2AE1050802</t>
-  </si>
-  <si>
-    <t>1F2AE1050803</t>
-  </si>
-  <si>
-    <t>1F2AE1050804</t>
-  </si>
-  <si>
-    <t>1F2AE1050805</t>
-  </si>
-  <si>
-    <t>1F2AE1060101</t>
-  </si>
-  <si>
-    <t>1F2AE1060102</t>
-  </si>
-  <si>
-    <t>1F2AE1060103</t>
-  </si>
-  <si>
-    <t>1F2AE1060104</t>
-  </si>
-  <si>
-    <t>1F2AE1060105</t>
-  </si>
-  <si>
-    <t>1F2AE1060201</t>
-  </si>
-  <si>
-    <t>1F2AE1060202</t>
-  </si>
-  <si>
-    <t>1F2AE1060203</t>
-  </si>
-  <si>
-    <t>1F2AE1060204</t>
-  </si>
-  <si>
-    <t>1F2AE1060205</t>
-  </si>
-  <si>
-    <t>1F2AE1060301</t>
-  </si>
-  <si>
-    <t>1F2AE1060302</t>
-  </si>
-  <si>
-    <t>1F2AE1060303</t>
-  </si>
-  <si>
-    <t>1F2AE1060304</t>
-  </si>
-  <si>
-    <t>1F2AE1060305</t>
-  </si>
-  <si>
-    <t>1F2AE1060401</t>
-  </si>
-  <si>
-    <t>1F2AE1060402</t>
-  </si>
-  <si>
-    <t>1F2AE1060403</t>
-  </si>
-  <si>
-    <t>1F2AE1060404</t>
-  </si>
-  <si>
-    <t>1F2AE1060405</t>
-  </si>
-  <si>
-    <t>1F2AE1060501</t>
-  </si>
-  <si>
-    <t>1F2AE1060502</t>
-  </si>
-  <si>
-    <t>1F2AE1060503</t>
-  </si>
-  <si>
-    <t>1F2AE1060504</t>
-  </si>
-  <si>
-    <t>1F2AE1060505</t>
-  </si>
-  <si>
-    <t>1F2AE1060601</t>
-  </si>
-  <si>
-    <t>1F2AE1060602</t>
-  </si>
-  <si>
-    <t>1F2AE1060603</t>
-  </si>
-  <si>
-    <t>1F2AE1060604</t>
-  </si>
-  <si>
-    <t>1F2AE1060605</t>
-  </si>
-  <si>
-    <t>1F2AE1060701</t>
-  </si>
-  <si>
-    <t>1F2AE1060702</t>
-  </si>
-  <si>
-    <t>1F2AE1060703</t>
-  </si>
-  <si>
-    <t>1F2AE1060704</t>
-  </si>
-  <si>
-    <t>1F2AE1060705</t>
-  </si>
-  <si>
-    <t>1F2AE1060801</t>
-  </si>
-  <si>
-    <t>1F2AE1060802</t>
-  </si>
-  <si>
-    <t>1F2AE1060803</t>
-  </si>
-  <si>
-    <t>1F2AE1060804</t>
-  </si>
-  <si>
-    <t>1F2AE1060805</t>
-  </si>
-  <si>
-    <t>1F2AE1070101</t>
-  </si>
-  <si>
-    <t>1F2AE1070102</t>
-  </si>
-  <si>
-    <t>1F2AE1070103</t>
-  </si>
-  <si>
-    <t>1F2AE1070104</t>
-  </si>
-  <si>
-    <t>1F2AE1070105</t>
-  </si>
-  <si>
-    <t>1F2AE1070201</t>
-  </si>
-  <si>
-    <t>1F2AE1070202</t>
-  </si>
-  <si>
-    <t>1F2AE1070203</t>
-  </si>
-  <si>
-    <t>1F2AE1070204</t>
-  </si>
-  <si>
-    <t>1F2AE1070205</t>
-  </si>
-  <si>
-    <t>1F2AE1070301</t>
-  </si>
-  <si>
-    <t>1F2AE1070302</t>
-  </si>
-  <si>
-    <t>1F2AE1070303</t>
-  </si>
-  <si>
-    <t>1F2AE1070304</t>
-  </si>
-  <si>
-    <t>1F2AE1070305</t>
-  </si>
-  <si>
-    <t>1F2AE1070401</t>
-  </si>
-  <si>
-    <t>1F2AE1070402</t>
-  </si>
-  <si>
-    <t>1F2AE1070403</t>
-  </si>
-  <si>
-    <t>1F2AE1070404</t>
-  </si>
-  <si>
-    <t>1F2AE1070405</t>
-  </si>
-  <si>
-    <t>1F2AE1070501</t>
-  </si>
-  <si>
-    <t>1F2AE1070502</t>
-  </si>
-  <si>
-    <t>1F2AE1070503</t>
-  </si>
-  <si>
-    <t>1F2AE1070504</t>
-  </si>
-  <si>
-    <t>1F2AE1070505</t>
-  </si>
-  <si>
-    <t>1F2AE1070601</t>
-  </si>
-  <si>
-    <t>1F2AE1070602</t>
-  </si>
-  <si>
-    <t>1F2AE1070603</t>
-  </si>
-  <si>
-    <t>1F2AE1070604</t>
-  </si>
-  <si>
-    <t>1F2AE1070605</t>
-  </si>
-  <si>
-    <t>1F2AE1070701</t>
-  </si>
-  <si>
-    <t>1F2AE1070702</t>
-  </si>
-  <si>
-    <t>1F2AE1070703</t>
-  </si>
-  <si>
-    <t>1F2AE1070704</t>
-  </si>
-  <si>
-    <t>1F2AE1070705</t>
-  </si>
-  <si>
-    <t>1F2AE1070801</t>
-  </si>
-  <si>
-    <t>1F2AE1070802</t>
-  </si>
-  <si>
-    <t>1F2AE1070803</t>
-  </si>
-  <si>
-    <t>1F2AE1070804</t>
-  </si>
-  <si>
-    <t>1F2AE1070805</t>
-  </si>
-  <si>
-    <t>1F2AE1080101</t>
-  </si>
-  <si>
-    <t>1F2AE1080102</t>
-  </si>
-  <si>
-    <t>1F2AE1080103</t>
-  </si>
-  <si>
-    <t>1F2AE1080104</t>
-  </si>
-  <si>
-    <t>1F2AE1080105</t>
-  </si>
-  <si>
-    <t>1F2AE1080201</t>
-  </si>
-  <si>
-    <t>1F2AE1080202</t>
-  </si>
-  <si>
-    <t>1F2AE1080203</t>
-  </si>
-  <si>
-    <t>1F2AE1080204</t>
-  </si>
-  <si>
-    <t>1F2AE1080205</t>
-  </si>
-  <si>
-    <t>1F2AE1080301</t>
-  </si>
-  <si>
-    <t>1F2AE1080302</t>
-  </si>
-  <si>
-    <t>1F2AE1080303</t>
-  </si>
-  <si>
-    <t>1F2AE1080304</t>
-  </si>
-  <si>
-    <t>1F2AE1080305</t>
-  </si>
-  <si>
-    <t>1F2AE1080401</t>
-  </si>
-  <si>
-    <t>1F2AE1080402</t>
-  </si>
-  <si>
-    <t>1F2AE1080403</t>
-  </si>
-  <si>
-    <t>1F2AE1080404</t>
-  </si>
-  <si>
-    <t>1F2AE1080405</t>
-  </si>
-  <si>
-    <t>1F2AE1080501</t>
-  </si>
-  <si>
-    <t>1F2AE1080502</t>
-  </si>
-  <si>
-    <t>1F2AE1080503</t>
-  </si>
-  <si>
-    <t>1F2AE1080504</t>
-  </si>
-  <si>
-    <t>1F2AE1080505</t>
-  </si>
-  <si>
-    <t>1F2AE1080601</t>
-  </si>
-  <si>
-    <t>1F2AE1080602</t>
-  </si>
-  <si>
-    <t>1F2AE1080603</t>
-  </si>
-  <si>
-    <t>1F2AE1080604</t>
-  </si>
-  <si>
-    <t>1F2AE1080605</t>
-  </si>
-  <si>
-    <t>1F2AE1080701</t>
-  </si>
-  <si>
-    <t>1F2AE1080702</t>
-  </si>
-  <si>
-    <t>1F2AE1080703</t>
-  </si>
-  <si>
-    <t>1F2AE1080704</t>
-  </si>
-  <si>
-    <t>1F2AE1080705</t>
-  </si>
-  <si>
-    <t>1F2AE1080801</t>
-  </si>
-  <si>
-    <t>1F2AE1080802</t>
-  </si>
-  <si>
-    <t>1F2AE1080803</t>
-  </si>
-  <si>
-    <t>1F2AE1080804</t>
-  </si>
-  <si>
-    <t>1F2AE1080805</t>
-  </si>
-  <si>
-    <t>1F2AE1090101</t>
-  </si>
-  <si>
-    <t>1F2AE1090102</t>
-  </si>
-  <si>
-    <t>1F2AE1090103</t>
-  </si>
-  <si>
-    <t>1F2AE1090104</t>
-  </si>
-  <si>
-    <t>1F2AE1090105</t>
-  </si>
-  <si>
-    <t>1F2AE1090201</t>
-  </si>
-  <si>
-    <t>1F2AE1090202</t>
-  </si>
-  <si>
-    <t>1F2AE1090203</t>
-  </si>
-  <si>
-    <t>1F2AE1090204</t>
-  </si>
-  <si>
-    <t>1F2AE1090205</t>
-  </si>
-  <si>
-    <t>1F2AE1090301</t>
-  </si>
-  <si>
-    <t>1F2AE1090302</t>
-  </si>
-  <si>
-    <t>1F2AE1090303</t>
-  </si>
-  <si>
-    <t>1F2AE1090304</t>
-  </si>
-  <si>
-    <t>1F2AE1090305</t>
-  </si>
-  <si>
-    <t>1F2AE1090401</t>
-  </si>
-  <si>
-    <t>1F2AE1090402</t>
-  </si>
-  <si>
-    <t>1F2AE1090403</t>
-  </si>
-  <si>
-    <t>1F2AE1090404</t>
-  </si>
-  <si>
-    <t>1F2AE1090405</t>
-  </si>
-  <si>
-    <t>1F2AE1090501</t>
-  </si>
-  <si>
-    <t>1F2AE1090502</t>
-  </si>
-  <si>
-    <t>1F2AE1090503</t>
-  </si>
-  <si>
-    <t>1F2AE1090504</t>
-  </si>
-  <si>
-    <t>1F2AE1090505</t>
-  </si>
-  <si>
-    <t>1F2AE1090601</t>
-  </si>
-  <si>
-    <t>1F2AE1090602</t>
-  </si>
-  <si>
-    <t>1F2AE1090603</t>
-  </si>
-  <si>
-    <t>1F2AE1090604</t>
-  </si>
-  <si>
-    <t>1F2AE1090605</t>
-  </si>
-  <si>
-    <t>1F2AE1090701</t>
-  </si>
-  <si>
-    <t>1F2AE1090702</t>
-  </si>
-  <si>
-    <t>1F2AE1090703</t>
-  </si>
-  <si>
-    <t>1F2AE1090704</t>
-  </si>
-  <si>
-    <t>1F2AE1090705</t>
-  </si>
-  <si>
-    <t>1F2AE1090801</t>
-  </si>
-  <si>
-    <t>1F2AE1090802</t>
-  </si>
-  <si>
-    <t>1F2AE1090803</t>
-  </si>
-  <si>
-    <t>1F2AE1090804</t>
-  </si>
-  <si>
-    <t>1F2AE1090805</t>
-  </si>
-  <si>
-    <t>1F2AE1100101</t>
-  </si>
-  <si>
-    <t>1F2AE1100102</t>
-  </si>
-  <si>
-    <t>1F2AE1100103</t>
-  </si>
-  <si>
-    <t>1F2AE1100104</t>
-  </si>
-  <si>
-    <t>1F2AE1100105</t>
-  </si>
-  <si>
-    <t>1F2AE1100201</t>
-  </si>
-  <si>
-    <t>1F2AE1100202</t>
-  </si>
-  <si>
-    <t>1F2AE1100203</t>
-  </si>
-  <si>
-    <t>1F2AE1100204</t>
-  </si>
-  <si>
-    <t>1F2AE1100205</t>
-  </si>
-  <si>
-    <t>1F2AE1100301</t>
-  </si>
-  <si>
-    <t>1F2AE1100302</t>
-  </si>
-  <si>
-    <t>1F2AE1100303</t>
-  </si>
-  <si>
-    <t>1F2AE1100304</t>
-  </si>
-  <si>
-    <t>1F2AE1100305</t>
-  </si>
-  <si>
-    <t>1F2AE1100401</t>
-  </si>
-  <si>
-    <t>1F2AE1100402</t>
-  </si>
-  <si>
-    <t>1F2AE1100403</t>
-  </si>
-  <si>
-    <t>1F2AE1100404</t>
-  </si>
-  <si>
-    <t>1F2AE1100405</t>
-  </si>
-  <si>
-    <t>1F2AE1100501</t>
-  </si>
-  <si>
-    <t>1F2AE1100502</t>
-  </si>
-  <si>
-    <t>1F2AE1100503</t>
-  </si>
-  <si>
-    <t>1F2AE1100504</t>
-  </si>
-  <si>
-    <t>1F2AE1100505</t>
-  </si>
-  <si>
-    <t>1F2AE1100601</t>
-  </si>
-  <si>
-    <t>1F2AE1100602</t>
-  </si>
-  <si>
-    <t>1F2AE1100603</t>
-  </si>
-  <si>
-    <t>1F2AE1100604</t>
-  </si>
-  <si>
-    <t>1F2AE1100605</t>
-  </si>
-  <si>
-    <t>1F2AE1100701</t>
-  </si>
-  <si>
-    <t>1F2AE1100702</t>
-  </si>
-  <si>
-    <t>1F2AE1100703</t>
-  </si>
-  <si>
-    <t>1F2AE1100704</t>
-  </si>
-  <si>
-    <t>1F2AE1100705</t>
-  </si>
-  <si>
-    <t>1F2AE1100801</t>
-  </si>
-  <si>
-    <t>1F2AE1100802</t>
-  </si>
-  <si>
-    <t>1F2AE1100803</t>
-  </si>
-  <si>
-    <t>1F2AE1100804</t>
-  </si>
-  <si>
-    <t>1F2AE1100805</t>
-  </si>
-  <si>
-    <t>1F2AE1110101</t>
-  </si>
-  <si>
-    <t>1F2AE1110102</t>
-  </si>
-  <si>
-    <t>1F2AE1110103</t>
-  </si>
-  <si>
-    <t>1F2AE1110104</t>
-  </si>
-  <si>
-    <t>1F2AE1110105</t>
-  </si>
-  <si>
-    <t>1F2AE1110201</t>
-  </si>
-  <si>
-    <t>1F2AE1110202</t>
-  </si>
-  <si>
-    <t>1F2AE1110203</t>
-  </si>
-  <si>
-    <t>1F2AE1110204</t>
-  </si>
-  <si>
-    <t>1F2AE1110205</t>
-  </si>
-  <si>
-    <t>1F2AE1110301</t>
-  </si>
-  <si>
-    <t>1F2AE1110302</t>
-  </si>
-  <si>
-    <t>1F2AE1110303</t>
-  </si>
-  <si>
-    <t>1F2AE1110304</t>
-  </si>
-  <si>
-    <t>1F2AE1110305</t>
-  </si>
-  <si>
-    <t>1F2AE1110401</t>
-  </si>
-  <si>
-    <t>1F2AE1110402</t>
-  </si>
-  <si>
-    <t>1F2AE1110403</t>
-  </si>
-  <si>
-    <t>1F2AE1110404</t>
-  </si>
-  <si>
-    <t>1F2AE1110405</t>
-  </si>
-  <si>
-    <t>1F2AE1110501</t>
-  </si>
-  <si>
-    <t>1F2AE1110502</t>
-  </si>
-  <si>
-    <t>1F2AE1110503</t>
-  </si>
-  <si>
-    <t>1F2AE1110504</t>
-  </si>
-  <si>
-    <t>1F2AE1110505</t>
-  </si>
-  <si>
-    <t>1F2AE1110601</t>
-  </si>
-  <si>
-    <t>1F2AE1110602</t>
-  </si>
-  <si>
-    <t>1F2AE1110603</t>
-  </si>
-  <si>
-    <t>1F2AE1110604</t>
-  </si>
-  <si>
-    <t>1F2AE1110605</t>
-  </si>
-  <si>
-    <t>1F2AE1110701</t>
-  </si>
-  <si>
-    <t>1F2AE1110702</t>
-  </si>
-  <si>
-    <t>1F2AE1110703</t>
-  </si>
-  <si>
-    <t>1F2AE1110704</t>
-  </si>
-  <si>
-    <t>1F2AE1110705</t>
-  </si>
-  <si>
-    <t>1F2AE1110801</t>
-  </si>
-  <si>
-    <t>1F2AE1110802</t>
-  </si>
-  <si>
-    <t>1F2AE1110803</t>
-  </si>
-  <si>
-    <t>1F2AE1110804</t>
-  </si>
-  <si>
-    <t>1F2AE1110805</t>
-  </si>
-  <si>
-    <t>1F2AE1120101</t>
-  </si>
-  <si>
-    <t>1F2AE1120102</t>
-  </si>
-  <si>
-    <t>1F2AE1120103</t>
-  </si>
-  <si>
-    <t>1F2AE1120104</t>
-  </si>
-  <si>
-    <t>1F2AE1120105</t>
-  </si>
-  <si>
-    <t>1F2AE1120201</t>
-  </si>
-  <si>
-    <t>1F2AE1120202</t>
-  </si>
-  <si>
-    <t>1F2AE1120203</t>
-  </si>
-  <si>
-    <t>1F2AE1120204</t>
-  </si>
-  <si>
-    <t>1F2AE1120205</t>
-  </si>
-  <si>
-    <t>1F2AE1120301</t>
-  </si>
-  <si>
-    <t>1F2AE1120302</t>
-  </si>
-  <si>
-    <t>1F2AE1120303</t>
-  </si>
-  <si>
-    <t>1F2AE1120304</t>
-  </si>
-  <si>
-    <t>1F2AE1120305</t>
-  </si>
-  <si>
-    <t>1F2AE1120401</t>
-  </si>
-  <si>
-    <t>1F2AE1120402</t>
-  </si>
-  <si>
-    <t>1F2AE1120403</t>
-  </si>
-  <si>
-    <t>1F2AE1120404</t>
-  </si>
-  <si>
-    <t>1F2AE1120405</t>
-  </si>
-  <si>
-    <t>1F2AE1120501</t>
-  </si>
-  <si>
-    <t>1F2AE1120502</t>
-  </si>
-  <si>
-    <t>1F2AE1120503</t>
-  </si>
-  <si>
-    <t>1F2AE1120504</t>
-  </si>
-  <si>
-    <t>1F2AE1120505</t>
-  </si>
-  <si>
-    <t>1F2AE1120601</t>
-  </si>
-  <si>
-    <t>1F2AE1120602</t>
-  </si>
-  <si>
-    <t>1F2AE1120603</t>
-  </si>
-  <si>
-    <t>1F2AE1120604</t>
-  </si>
-  <si>
-    <t>1F2AE1120605</t>
-  </si>
-  <si>
-    <t>1F2AE1120701</t>
-  </si>
-  <si>
-    <t>1F2AE1120702</t>
-  </si>
-  <si>
-    <t>1F2AE1120703</t>
-  </si>
-  <si>
-    <t>1F2AE1120704</t>
-  </si>
-  <si>
-    <t>1F2AE1120705</t>
-  </si>
-  <si>
-    <t>1F2AE1120801</t>
-  </si>
-  <si>
-    <t>1F2AE1120802</t>
-  </si>
-  <si>
-    <t>1F2AE1120803</t>
-  </si>
-  <si>
-    <t>1F2AE1120804</t>
-  </si>
-  <si>
-    <t>1F2AE1120805</t>
-  </si>
-  <si>
-    <t>1F2AE1130101</t>
-  </si>
-  <si>
-    <t>1F2AE1130102</t>
-  </si>
-  <si>
-    <t>1F2AE1130103</t>
-  </si>
-  <si>
-    <t>1F2AE1130104</t>
-  </si>
-  <si>
-    <t>1F2AE1130105</t>
-  </si>
-  <si>
-    <t>1F2AE1130201</t>
-  </si>
-  <si>
-    <t>1F2AE1130202</t>
-  </si>
-  <si>
-    <t>1F2AE1130203</t>
-  </si>
-  <si>
-    <t>1F2AE1130204</t>
-  </si>
-  <si>
-    <t>1F2AE1130205</t>
-  </si>
-  <si>
-    <t>1F2AE1130301</t>
-  </si>
-  <si>
-    <t>1F2AE1130302</t>
-  </si>
-  <si>
-    <t>1F2AE1130303</t>
-  </si>
-  <si>
-    <t>1F2AE1130304</t>
-  </si>
-  <si>
-    <t>1F2AE1130305</t>
-  </si>
-  <si>
-    <t>1F2AE1130401</t>
-  </si>
-  <si>
-    <t>1F2AE1130402</t>
-  </si>
-  <si>
-    <t>1F2AE1130403</t>
-  </si>
-  <si>
-    <t>1F2AE1130404</t>
-  </si>
-  <si>
-    <t>1F2AE1130405</t>
-  </si>
-  <si>
-    <t>1F2AE1130501</t>
-  </si>
-  <si>
-    <t>1F2AE1130502</t>
-  </si>
-  <si>
-    <t>1F2AE1130503</t>
-  </si>
-  <si>
-    <t>1F2AE1130504</t>
-  </si>
-  <si>
-    <t>1F2AE1130505</t>
-  </si>
-  <si>
-    <t>1F2AE1130601</t>
-  </si>
-  <si>
-    <t>1F2AE1130602</t>
-  </si>
-  <si>
-    <t>1F2AE1130603</t>
-  </si>
-  <si>
-    <t>1F2AE1130604</t>
-  </si>
-  <si>
-    <t>1F2AE1130605</t>
-  </si>
-  <si>
-    <t>1F2AE1130701</t>
-  </si>
-  <si>
-    <t>1F2AE1130702</t>
-  </si>
-  <si>
-    <t>1F2AE1130703</t>
-  </si>
-  <si>
-    <t>1F2AE1130704</t>
-  </si>
-  <si>
-    <t>1F2AE1130705</t>
-  </si>
-  <si>
-    <t>1F2AE1130801</t>
-  </si>
-  <si>
-    <t>1F2AE1130802</t>
-  </si>
-  <si>
-    <t>1F2AE1130803</t>
-  </si>
-  <si>
-    <t>1F2AE1130804</t>
-  </si>
-  <si>
-    <t>1F2AE1130805</t>
-  </si>
-  <si>
-    <t>1F2AE1140101</t>
-  </si>
-  <si>
-    <t>1F2AE1140102</t>
-  </si>
-  <si>
-    <t>1F2AE1140103</t>
-  </si>
-  <si>
-    <t>1F2AE1140104</t>
-  </si>
-  <si>
-    <t>1F2AE1140105</t>
-  </si>
-  <si>
-    <t>1F2AE1140201</t>
-  </si>
-  <si>
-    <t>1F2AE1140202</t>
-  </si>
-  <si>
-    <t>1F2AE1140203</t>
-  </si>
-  <si>
-    <t>1F2AE1140204</t>
-  </si>
-  <si>
-    <t>1F2AE1140205</t>
-  </si>
-  <si>
-    <t>1F2AE1140301</t>
-  </si>
-  <si>
-    <t>1F2AE1140302</t>
-  </si>
-  <si>
-    <t>1F2AE1140303</t>
-  </si>
-  <si>
-    <t>1F2AE1140304</t>
-  </si>
-  <si>
-    <t>1F2AE1140305</t>
-  </si>
-  <si>
-    <t>1F2AE1140401</t>
-  </si>
-  <si>
-    <t>1F2AE1140402</t>
-  </si>
-  <si>
-    <t>1F2AE1140403</t>
-  </si>
-  <si>
-    <t>1F2AE1140404</t>
-  </si>
-  <si>
-    <t>1F2AE1140405</t>
-  </si>
-  <si>
-    <t>1F2AE1140501</t>
-  </si>
-  <si>
-    <t>1F2AE1140502</t>
-  </si>
-  <si>
-    <t>1F2AE1140503</t>
-  </si>
-  <si>
-    <t>1F2AE1140504</t>
-  </si>
-  <si>
-    <t>1F2AE1140505</t>
-  </si>
-  <si>
-    <t>1F2AE1140601</t>
-  </si>
-  <si>
-    <t>1F2AE1140602</t>
-  </si>
-  <si>
-    <t>1F2AE1140603</t>
-  </si>
-  <si>
-    <t>1F2AE1140604</t>
-  </si>
-  <si>
-    <t>1F2AE1140605</t>
-  </si>
-  <si>
-    <t>1F2AE1140701</t>
-  </si>
-  <si>
-    <t>1F2AE1140702</t>
-  </si>
-  <si>
-    <t>1F2AE1140703</t>
-  </si>
-  <si>
-    <t>1F2AE1140704</t>
-  </si>
-  <si>
-    <t>1F2AE1140705</t>
-  </si>
-  <si>
-    <t>1F2AE1140801</t>
-  </si>
-  <si>
-    <t>1F2AE1140802</t>
-  </si>
-  <si>
-    <t>1F2AE1140803</t>
-  </si>
-  <si>
-    <t>1F2AE1140804</t>
-  </si>
-  <si>
-    <t>1F2AE1140805</t>
-  </si>
-  <si>
-    <t>1F2AF1010101</t>
-  </si>
-  <si>
-    <t>1F2AF1010102</t>
-  </si>
-  <si>
-    <t>1F2AF1010103</t>
-  </si>
-  <si>
-    <t>1F2AF1010104</t>
-  </si>
-  <si>
-    <t>1F2AF1010105</t>
-  </si>
-  <si>
-    <t>1F2AF1010201</t>
-  </si>
-  <si>
-    <t>1F2AF1010202</t>
-  </si>
-  <si>
-    <t>1F2AF1010203</t>
-  </si>
-  <si>
-    <t>1F2AF1010204</t>
-  </si>
-  <si>
-    <t>1F2AF1010205</t>
-  </si>
-  <si>
-    <t>1F2AF1010301</t>
-  </si>
-  <si>
-    <t>1F2AF1010302</t>
-  </si>
-  <si>
-    <t>1F2AF1010303</t>
-  </si>
-  <si>
-    <t>1F2AF1010304</t>
-  </si>
-  <si>
-    <t>1F2AF1010305</t>
-  </si>
-  <si>
-    <t>1F2AF1010401</t>
-  </si>
-  <si>
-    <t>1F2AF1010402</t>
-  </si>
-  <si>
-    <t>1F2AF1010403</t>
-  </si>
-  <si>
-    <t>1F2AF1010404</t>
-  </si>
-  <si>
-    <t>1F2AF1010405</t>
-  </si>
-  <si>
-    <t>1F2AF1010501</t>
-  </si>
-  <si>
-    <t>1F2AF1010502</t>
-  </si>
-  <si>
-    <t>1F2AF1010503</t>
-  </si>
-  <si>
-    <t>1F2AF1010504</t>
-  </si>
-  <si>
-    <t>1F2AF1010505</t>
-  </si>
-  <si>
-    <t>1F2AF1010601</t>
-  </si>
-  <si>
-    <t>1F2AF1010602</t>
-  </si>
-  <si>
-    <t>1F2AF1010603</t>
-  </si>
-  <si>
-    <t>1F2AF1010604</t>
-  </si>
-  <si>
-    <t>1F2AF1010605</t>
-  </si>
-  <si>
-    <t>1F2AF1010701</t>
-  </si>
-  <si>
-    <t>1F2AF1010702</t>
-  </si>
-  <si>
-    <t>1F2AF1010703</t>
-  </si>
-  <si>
-    <t>1F2AF1010704</t>
-  </si>
-  <si>
-    <t>1F2AF1010705</t>
-  </si>
-  <si>
-    <t>1F2AF1010801</t>
-  </si>
-  <si>
-    <t>1F2AF1010802</t>
-  </si>
-  <si>
-    <t>1F2AF1010803</t>
-  </si>
-  <si>
-    <t>1F2AF1010804</t>
-  </si>
-  <si>
-    <t>1F2AF1010805</t>
-  </si>
-  <si>
-    <t>1F2AF1020101</t>
-  </si>
-  <si>
-    <t>1F2AF1020102</t>
-  </si>
-  <si>
-    <t>1F2AF1020103</t>
-  </si>
-  <si>
-    <t>1F2AF1020104</t>
-  </si>
-  <si>
-    <t>1F2AF1020105</t>
-  </si>
-  <si>
-    <t>1F2AF1020201</t>
-  </si>
-  <si>
-    <t>1F2AF1020202</t>
-  </si>
-  <si>
-    <t>1F2AF1020203</t>
-  </si>
-  <si>
-    <t>1F2AF1020204</t>
-  </si>
-  <si>
-    <t>1F2AF1020205</t>
-  </si>
-  <si>
-    <t>1F2AF1020301</t>
-  </si>
-  <si>
-    <t>1F2AF1020302</t>
-  </si>
-  <si>
-    <t>1F2AF1020303</t>
-  </si>
-  <si>
-    <t>1F2AF1020304</t>
-  </si>
-  <si>
-    <t>1F2AF1020305</t>
-  </si>
-  <si>
-    <t>1F2AF1020401</t>
-  </si>
-  <si>
-    <t>1F2AF1020402</t>
-  </si>
-  <si>
-    <t>1F2AF1020403</t>
-  </si>
-  <si>
-    <t>1F2AF1020404</t>
-  </si>
-  <si>
-    <t>1F2AF1020405</t>
-  </si>
-  <si>
-    <t>1F2AF1020501</t>
-  </si>
-  <si>
-    <t>1F2AF1020502</t>
-  </si>
-  <si>
-    <t>1F2AF1020503</t>
-  </si>
-  <si>
-    <t>1F2AF1020504</t>
-  </si>
-  <si>
-    <t>1F2AF1020505</t>
-  </si>
-  <si>
-    <t>1F2AF1020601</t>
-  </si>
-  <si>
-    <t>1F2AF1020602</t>
-  </si>
-  <si>
-    <t>1F2AF1020603</t>
-  </si>
-  <si>
-    <t>1F2AF1020604</t>
-  </si>
-  <si>
-    <t>1F2AF1020605</t>
-  </si>
-  <si>
-    <t>1F2AF1020701</t>
-  </si>
-  <si>
-    <t>1F2AF1020702</t>
-  </si>
-  <si>
-    <t>1F2AF1020703</t>
-  </si>
-  <si>
-    <t>1F2AF1020704</t>
-  </si>
-  <si>
-    <t>1F2AF1020705</t>
-  </si>
-  <si>
-    <t>1F2AF1020801</t>
-  </si>
-  <si>
-    <t>1F2AF1020802</t>
-  </si>
-  <si>
-    <t>1F2AF1020803</t>
-  </si>
-  <si>
-    <t>1F2AF1020804</t>
-  </si>
-  <si>
-    <t>1F2AF1020805</t>
-  </si>
-  <si>
-    <t>1F2AF1030101</t>
-  </si>
-  <si>
-    <t>1F2AF1030102</t>
-  </si>
-  <si>
-    <t>1F2AF1030103</t>
-  </si>
-  <si>
-    <t>1F2AF1030104</t>
-  </si>
-  <si>
-    <t>1F2AF1030105</t>
-  </si>
-  <si>
-    <t>1F2AF1030201</t>
-  </si>
-  <si>
-    <t>1F2AF1030202</t>
-  </si>
-  <si>
-    <t>1F2AF1030203</t>
-  </si>
-  <si>
-    <t>1F2AF1030204</t>
-  </si>
-  <si>
-    <t>1F2AF1030205</t>
-  </si>
-  <si>
-    <t>1F2AF1030301</t>
-  </si>
-  <si>
-    <t>1F2AF1030302</t>
-  </si>
-  <si>
-    <t>1F2AF1030303</t>
-  </si>
-  <si>
-    <t>1F2AF1030304</t>
-  </si>
-  <si>
-    <t>1F2AF1030305</t>
-  </si>
-  <si>
-    <t>1F2AF1030401</t>
-  </si>
-  <si>
-    <t>1F2AF1030402</t>
-  </si>
-  <si>
-    <t>1F2AF1030403</t>
-  </si>
-  <si>
-    <t>1F2AF1030404</t>
-  </si>
-  <si>
-    <t>1F2AF1030405</t>
-  </si>
-  <si>
-    <t>1F2AF1030501</t>
-  </si>
-  <si>
-    <t>1F2AF1030502</t>
-  </si>
-  <si>
-    <t>1F2AF1030503</t>
-  </si>
-  <si>
-    <t>1F2AF1030504</t>
-  </si>
-  <si>
-    <t>1F2AF1030505</t>
-  </si>
-  <si>
-    <t>1F2AF1030601</t>
-  </si>
-  <si>
-    <t>1F2AF1030602</t>
-  </si>
-  <si>
-    <t>1F2AF1030603</t>
-  </si>
-  <si>
-    <t>1F2AF1030604</t>
-  </si>
-  <si>
-    <t>1F2AF1030605</t>
-  </si>
-  <si>
-    <t>1F2AF1030701</t>
-  </si>
-  <si>
-    <t>1F2AF1030702</t>
-  </si>
-  <si>
-    <t>1F2AF1030703</t>
-  </si>
-  <si>
-    <t>1F2AF1030704</t>
-  </si>
-  <si>
-    <t>1F2AF1030705</t>
-  </si>
-  <si>
-    <t>1F2AF1030801</t>
-  </si>
-  <si>
-    <t>1F2AF1030802</t>
-  </si>
-  <si>
-    <t>1F2AF1030803</t>
-  </si>
-  <si>
-    <t>1F2AF1030804</t>
-  </si>
-  <si>
-    <t>1F2AF1030805</t>
-  </si>
-  <si>
-    <t>1F2AF1040101</t>
-  </si>
-  <si>
-    <t>1F2AF1040102</t>
-  </si>
-  <si>
-    <t>1F2AF1040103</t>
-  </si>
-  <si>
-    <t>1F2AF1040104</t>
-  </si>
-  <si>
-    <t>1F2AF1040105</t>
-  </si>
-  <si>
-    <t>1F2AF1040201</t>
   </si>
 </sst>
 </file>
@@ -15351,10 +13851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5001"/>
+  <dimension ref="A1:B4501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4973" workbookViewId="0">
-      <selection activeCell="H5000" sqref="H5000"/>
+    <sheetView tabSelected="1" topLeftCell="A4487" workbookViewId="0">
+      <selection activeCell="N4502" sqref="N4502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51367,4006 +49867,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4502" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4502" t="s">
-        <v>4503</v>
-      </c>
-      <c r="B4502" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4503" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4503" t="s">
-        <v>4504</v>
-      </c>
-      <c r="B4503" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4504" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4504" t="s">
-        <v>4505</v>
-      </c>
-      <c r="B4504" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4505" t="s">
-        <v>4506</v>
-      </c>
-      <c r="B4505" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4506" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4506" t="s">
-        <v>4507</v>
-      </c>
-      <c r="B4506" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4507" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4507" t="s">
-        <v>4508</v>
-      </c>
-      <c r="B4507" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4508" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4508" t="s">
-        <v>4509</v>
-      </c>
-      <c r="B4508" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4509" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4509" t="s">
-        <v>4510</v>
-      </c>
-      <c r="B4509" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4510" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4510" t="s">
-        <v>4511</v>
-      </c>
-      <c r="B4510" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4511" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4511" t="s">
-        <v>4512</v>
-      </c>
-      <c r="B4511" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4512" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4512" t="s">
-        <v>4513</v>
-      </c>
-      <c r="B4512" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4513" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4513" t="s">
-        <v>4514</v>
-      </c>
-      <c r="B4513" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4514" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4514" t="s">
-        <v>4515</v>
-      </c>
-      <c r="B4514" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4515" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4515" t="s">
-        <v>4516</v>
-      </c>
-      <c r="B4515" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4516" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4516" t="s">
-        <v>4517</v>
-      </c>
-      <c r="B4516" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4517" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4517" t="s">
-        <v>4518</v>
-      </c>
-      <c r="B4517" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4518" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4518" t="s">
-        <v>4519</v>
-      </c>
-      <c r="B4518" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4519" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4519" t="s">
-        <v>4520</v>
-      </c>
-      <c r="B4519" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4520" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4520" t="s">
-        <v>4521</v>
-      </c>
-      <c r="B4520" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4521" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4521" t="s">
-        <v>4522</v>
-      </c>
-      <c r="B4521" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4522" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4522" t="s">
-        <v>4523</v>
-      </c>
-      <c r="B4522" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4523" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4523" t="s">
-        <v>4524</v>
-      </c>
-      <c r="B4523" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4524" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4524" t="s">
-        <v>4525</v>
-      </c>
-      <c r="B4524" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4525" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4525" t="s">
-        <v>4526</v>
-      </c>
-      <c r="B4525" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4526" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4526" t="s">
-        <v>4527</v>
-      </c>
-      <c r="B4526" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4527" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4527" t="s">
-        <v>4528</v>
-      </c>
-      <c r="B4527" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4528" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4528" t="s">
-        <v>4529</v>
-      </c>
-      <c r="B4528" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4529" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4529" t="s">
-        <v>4530</v>
-      </c>
-      <c r="B4529" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4530" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4530" t="s">
-        <v>4531</v>
-      </c>
-      <c r="B4530" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4531" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4531" t="s">
-        <v>4532</v>
-      </c>
-      <c r="B4531" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4532" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4532" t="s">
-        <v>4533</v>
-      </c>
-      <c r="B4532" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4533" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4533" t="s">
-        <v>4534</v>
-      </c>
-      <c r="B4533" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4534" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4534" t="s">
-        <v>4535</v>
-      </c>
-      <c r="B4534" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4535" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4535" t="s">
-        <v>4536</v>
-      </c>
-      <c r="B4535" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4536" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4536" t="s">
-        <v>4537</v>
-      </c>
-      <c r="B4536" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4537" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4537" t="s">
-        <v>4538</v>
-      </c>
-      <c r="B4537" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4538" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4538" t="s">
-        <v>4539</v>
-      </c>
-      <c r="B4538" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4539" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4539" t="s">
-        <v>4540</v>
-      </c>
-      <c r="B4539" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4540" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4540" t="s">
-        <v>4541</v>
-      </c>
-      <c r="B4540" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4541" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4541" t="s">
-        <v>4542</v>
-      </c>
-      <c r="B4541" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4542" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4542" t="s">
-        <v>4543</v>
-      </c>
-      <c r="B4542" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4543" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4543" t="s">
-        <v>4544</v>
-      </c>
-      <c r="B4543" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4544" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4544" t="s">
-        <v>4545</v>
-      </c>
-      <c r="B4544" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4545" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4545" t="s">
-        <v>4546</v>
-      </c>
-      <c r="B4545" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4546" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4546" t="s">
-        <v>4547</v>
-      </c>
-      <c r="B4546" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4547" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4547" t="s">
-        <v>4548</v>
-      </c>
-      <c r="B4547" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4548" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4548" t="s">
-        <v>4549</v>
-      </c>
-      <c r="B4548" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4549" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4549" t="s">
-        <v>4550</v>
-      </c>
-      <c r="B4549" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4550" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4550" t="s">
-        <v>4551</v>
-      </c>
-      <c r="B4550" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4551" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4551" t="s">
-        <v>4552</v>
-      </c>
-      <c r="B4551" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4552" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4552" t="s">
-        <v>4553</v>
-      </c>
-      <c r="B4552" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4553" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4553" t="s">
-        <v>4554</v>
-      </c>
-      <c r="B4553" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4554" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4554" t="s">
-        <v>4555</v>
-      </c>
-      <c r="B4554" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4555" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4555" t="s">
-        <v>4556</v>
-      </c>
-      <c r="B4555" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4556" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4556" t="s">
-        <v>4557</v>
-      </c>
-      <c r="B4556" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4557" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4557" t="s">
-        <v>4558</v>
-      </c>
-      <c r="B4557" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4558" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4558" t="s">
-        <v>4559</v>
-      </c>
-      <c r="B4558" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4559" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4559" t="s">
-        <v>4560</v>
-      </c>
-      <c r="B4559" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4560" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4560" t="s">
-        <v>4561</v>
-      </c>
-      <c r="B4560" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4561" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4561" t="s">
-        <v>4562</v>
-      </c>
-      <c r="B4561" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4562" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4562" t="s">
-        <v>4563</v>
-      </c>
-      <c r="B4562" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4563" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4563" t="s">
-        <v>4564</v>
-      </c>
-      <c r="B4563" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4564" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4564" t="s">
-        <v>4565</v>
-      </c>
-      <c r="B4564" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4565" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4565" t="s">
-        <v>4566</v>
-      </c>
-      <c r="B4565" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4566" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4566" t="s">
-        <v>4567</v>
-      </c>
-      <c r="B4566" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4567" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4567" t="s">
-        <v>4568</v>
-      </c>
-      <c r="B4567" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4568" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4568" t="s">
-        <v>4569</v>
-      </c>
-      <c r="B4568" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4569" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4569" t="s">
-        <v>4570</v>
-      </c>
-      <c r="B4569" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4570" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4570" t="s">
-        <v>4571</v>
-      </c>
-      <c r="B4570" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4571" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4571" t="s">
-        <v>4572</v>
-      </c>
-      <c r="B4571" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4572" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4572" t="s">
-        <v>4573</v>
-      </c>
-      <c r="B4572" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4573" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4573" t="s">
-        <v>4574</v>
-      </c>
-      <c r="B4573" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4574" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4574" t="s">
-        <v>4575</v>
-      </c>
-      <c r="B4574" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4575" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4575" t="s">
-        <v>4576</v>
-      </c>
-      <c r="B4575" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4576" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4576" t="s">
-        <v>4577</v>
-      </c>
-      <c r="B4576" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4577" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4577" t="s">
-        <v>4578</v>
-      </c>
-      <c r="B4577" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4578" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4578" t="s">
-        <v>4579</v>
-      </c>
-      <c r="B4578" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4579" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4579" t="s">
-        <v>4580</v>
-      </c>
-      <c r="B4579" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4580" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4580" t="s">
-        <v>4581</v>
-      </c>
-      <c r="B4580" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4581" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4581" t="s">
-        <v>4582</v>
-      </c>
-      <c r="B4581" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4582" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4582" t="s">
-        <v>4583</v>
-      </c>
-      <c r="B4582" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4583" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4583" t="s">
-        <v>4584</v>
-      </c>
-      <c r="B4583" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4584" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4584" t="s">
-        <v>4585</v>
-      </c>
-      <c r="B4584" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4585" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4585" t="s">
-        <v>4586</v>
-      </c>
-      <c r="B4585" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4586" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4586" t="s">
-        <v>4587</v>
-      </c>
-      <c r="B4586" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4587" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4587" t="s">
-        <v>4588</v>
-      </c>
-      <c r="B4587" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4588" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4588" t="s">
-        <v>4589</v>
-      </c>
-      <c r="B4588" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4589" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4589" t="s">
-        <v>4590</v>
-      </c>
-      <c r="B4589" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4590" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4590" t="s">
-        <v>4591</v>
-      </c>
-      <c r="B4590" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4591" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4591" t="s">
-        <v>4592</v>
-      </c>
-      <c r="B4591" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4592" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4592" t="s">
-        <v>4593</v>
-      </c>
-      <c r="B4592" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4593" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4593" t="s">
-        <v>4594</v>
-      </c>
-      <c r="B4593" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4594" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4594" t="s">
-        <v>4595</v>
-      </c>
-      <c r="B4594" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4595" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4595" t="s">
-        <v>4596</v>
-      </c>
-      <c r="B4595" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4596" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4596" t="s">
-        <v>4597</v>
-      </c>
-      <c r="B4596" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4597" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4597" t="s">
-        <v>4598</v>
-      </c>
-      <c r="B4597" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4598" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4598" t="s">
-        <v>4599</v>
-      </c>
-      <c r="B4598" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4599" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4599" t="s">
-        <v>4600</v>
-      </c>
-      <c r="B4599" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4600" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4600" t="s">
-        <v>4601</v>
-      </c>
-      <c r="B4600" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4601" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4601" t="s">
-        <v>4602</v>
-      </c>
-      <c r="B4601" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4602" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4602" t="s">
-        <v>4603</v>
-      </c>
-      <c r="B4602" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4603" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4603" t="s">
-        <v>4604</v>
-      </c>
-      <c r="B4603" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4604" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4604" t="s">
-        <v>4605</v>
-      </c>
-      <c r="B4604" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4605" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4605" t="s">
-        <v>4606</v>
-      </c>
-      <c r="B4605" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4606" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4606" t="s">
-        <v>4607</v>
-      </c>
-      <c r="B4606" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4607" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4607" t="s">
-        <v>4608</v>
-      </c>
-      <c r="B4607" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4608" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4608" t="s">
-        <v>4609</v>
-      </c>
-      <c r="B4608" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4609" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4609" t="s">
-        <v>4610</v>
-      </c>
-      <c r="B4609" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4610" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4610" t="s">
-        <v>4611</v>
-      </c>
-      <c r="B4610" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4611" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4611" t="s">
-        <v>4612</v>
-      </c>
-      <c r="B4611" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4612" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4612" t="s">
-        <v>4613</v>
-      </c>
-      <c r="B4612" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4613" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4613" t="s">
-        <v>4614</v>
-      </c>
-      <c r="B4613" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4614" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4614" t="s">
-        <v>4615</v>
-      </c>
-      <c r="B4614" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4615" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4615" t="s">
-        <v>4616</v>
-      </c>
-      <c r="B4615" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4616" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4616" t="s">
-        <v>4617</v>
-      </c>
-      <c r="B4616" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4617" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4617" t="s">
-        <v>4618</v>
-      </c>
-      <c r="B4617" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4618" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4618" t="s">
-        <v>4619</v>
-      </c>
-      <c r="B4618" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4619" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4619" t="s">
-        <v>4620</v>
-      </c>
-      <c r="B4619" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4620" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4620" t="s">
-        <v>4621</v>
-      </c>
-      <c r="B4620" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4621" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4621" t="s">
-        <v>4622</v>
-      </c>
-      <c r="B4621" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4622" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4622" t="s">
-        <v>4623</v>
-      </c>
-      <c r="B4622" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4623" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4623" t="s">
-        <v>4624</v>
-      </c>
-      <c r="B4623" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4624" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4624" t="s">
-        <v>4625</v>
-      </c>
-      <c r="B4624" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4625" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4625" t="s">
-        <v>4626</v>
-      </c>
-      <c r="B4625" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4626" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4626" t="s">
-        <v>4627</v>
-      </c>
-      <c r="B4626" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4627" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4627" t="s">
-        <v>4628</v>
-      </c>
-      <c r="B4627" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4628" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4628" t="s">
-        <v>4629</v>
-      </c>
-      <c r="B4628" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4629" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4629" t="s">
-        <v>4630</v>
-      </c>
-      <c r="B4629" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4630" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4630" t="s">
-        <v>4631</v>
-      </c>
-      <c r="B4630" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4631" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4631" t="s">
-        <v>4632</v>
-      </c>
-      <c r="B4631" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4632" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4632" t="s">
-        <v>4633</v>
-      </c>
-      <c r="B4632" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4633" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4633" t="s">
-        <v>4634</v>
-      </c>
-      <c r="B4633" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4634" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4634" t="s">
-        <v>4635</v>
-      </c>
-      <c r="B4634" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4635" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4635" t="s">
-        <v>4636</v>
-      </c>
-      <c r="B4635" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4636" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4636" t="s">
-        <v>4637</v>
-      </c>
-      <c r="B4636" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4637" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4637" t="s">
-        <v>4638</v>
-      </c>
-      <c r="B4637" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4638" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4638" t="s">
-        <v>4639</v>
-      </c>
-      <c r="B4638" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4639" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4639" t="s">
-        <v>4640</v>
-      </c>
-      <c r="B4639" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4640" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4640" t="s">
-        <v>4641</v>
-      </c>
-      <c r="B4640" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4641" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4641" t="s">
-        <v>4642</v>
-      </c>
-      <c r="B4641" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4642" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4642" t="s">
-        <v>4643</v>
-      </c>
-      <c r="B4642" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4643" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4643" t="s">
-        <v>4644</v>
-      </c>
-      <c r="B4643" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4644" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4644" t="s">
-        <v>4645</v>
-      </c>
-      <c r="B4644" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4645" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4645" t="s">
-        <v>4646</v>
-      </c>
-      <c r="B4645" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4646" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4646" t="s">
-        <v>4647</v>
-      </c>
-      <c r="B4646" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4647" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4647" t="s">
-        <v>4648</v>
-      </c>
-      <c r="B4647" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4648" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4648" t="s">
-        <v>4649</v>
-      </c>
-      <c r="B4648" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4649" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4649" t="s">
-        <v>4650</v>
-      </c>
-      <c r="B4649" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4650" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4650" t="s">
-        <v>4651</v>
-      </c>
-      <c r="B4650" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4651" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4651" t="s">
-        <v>4652</v>
-      </c>
-      <c r="B4651" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4652" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4652" t="s">
-        <v>4653</v>
-      </c>
-      <c r="B4652" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4653" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4653" t="s">
-        <v>4654</v>
-      </c>
-      <c r="B4653" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4654" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4654" t="s">
-        <v>4655</v>
-      </c>
-      <c r="B4654" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4655" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4655" t="s">
-        <v>4656</v>
-      </c>
-      <c r="B4655" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4656" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4656" t="s">
-        <v>4657</v>
-      </c>
-      <c r="B4656" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4657" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4657" t="s">
-        <v>4658</v>
-      </c>
-      <c r="B4657" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4658" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4658" t="s">
-        <v>4659</v>
-      </c>
-      <c r="B4658" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4659" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4659" t="s">
-        <v>4660</v>
-      </c>
-      <c r="B4659" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4660" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4660" t="s">
-        <v>4661</v>
-      </c>
-      <c r="B4660" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4661" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4661" t="s">
-        <v>4662</v>
-      </c>
-      <c r="B4661" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4662" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4662" t="s">
-        <v>4663</v>
-      </c>
-      <c r="B4662" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4663" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4663" t="s">
-        <v>4664</v>
-      </c>
-      <c r="B4663" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4664" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4664" t="s">
-        <v>4665</v>
-      </c>
-      <c r="B4664" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4665" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4665" t="s">
-        <v>4666</v>
-      </c>
-      <c r="B4665" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4666" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4666" t="s">
-        <v>4667</v>
-      </c>
-      <c r="B4666" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4667" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4667" t="s">
-        <v>4668</v>
-      </c>
-      <c r="B4667" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4668" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4668" t="s">
-        <v>4669</v>
-      </c>
-      <c r="B4668" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4669" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4669" t="s">
-        <v>4670</v>
-      </c>
-      <c r="B4669" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4670" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4670" t="s">
-        <v>4671</v>
-      </c>
-      <c r="B4670" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4671" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4671" t="s">
-        <v>4672</v>
-      </c>
-      <c r="B4671" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4672" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4672" t="s">
-        <v>4673</v>
-      </c>
-      <c r="B4672" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4673" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4673" t="s">
-        <v>4674</v>
-      </c>
-      <c r="B4673" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4674" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4674" t="s">
-        <v>4675</v>
-      </c>
-      <c r="B4674" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4675" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4675" t="s">
-        <v>4676</v>
-      </c>
-      <c r="B4675" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4676" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4676" t="s">
-        <v>4677</v>
-      </c>
-      <c r="B4676" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4677" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4677" t="s">
-        <v>4678</v>
-      </c>
-      <c r="B4677" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4678" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4678" t="s">
-        <v>4679</v>
-      </c>
-      <c r="B4678" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4679" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4679" t="s">
-        <v>4680</v>
-      </c>
-      <c r="B4679" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4680" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4680" t="s">
-        <v>4681</v>
-      </c>
-      <c r="B4680" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4681" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4681" t="s">
-        <v>4682</v>
-      </c>
-      <c r="B4681" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4682" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4682" t="s">
-        <v>4683</v>
-      </c>
-      <c r="B4682" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4683" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4683" t="s">
-        <v>4684</v>
-      </c>
-      <c r="B4683" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4684" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4684" t="s">
-        <v>4685</v>
-      </c>
-      <c r="B4684" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4685" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4685" t="s">
-        <v>4686</v>
-      </c>
-      <c r="B4685" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4686" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4686" t="s">
-        <v>4687</v>
-      </c>
-      <c r="B4686" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4687" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4687" t="s">
-        <v>4688</v>
-      </c>
-      <c r="B4687" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4688" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4688" t="s">
-        <v>4689</v>
-      </c>
-      <c r="B4688" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4689" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4689" t="s">
-        <v>4690</v>
-      </c>
-      <c r="B4689" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4690" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4690" t="s">
-        <v>4691</v>
-      </c>
-      <c r="B4690" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4691" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4691" t="s">
-        <v>4692</v>
-      </c>
-      <c r="B4691" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4692" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4692" t="s">
-        <v>4693</v>
-      </c>
-      <c r="B4692" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4693" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4693" t="s">
-        <v>4694</v>
-      </c>
-      <c r="B4693" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4694" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4694" t="s">
-        <v>4695</v>
-      </c>
-      <c r="B4694" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4695" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4695" t="s">
-        <v>4696</v>
-      </c>
-      <c r="B4695" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4696" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4696" t="s">
-        <v>4697</v>
-      </c>
-      <c r="B4696" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4697" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4697" t="s">
-        <v>4698</v>
-      </c>
-      <c r="B4697" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4698" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4698" t="s">
-        <v>4699</v>
-      </c>
-      <c r="B4698" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4699" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4699" t="s">
-        <v>4700</v>
-      </c>
-      <c r="B4699" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4700" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4700" t="s">
-        <v>4701</v>
-      </c>
-      <c r="B4700" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4701" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4701" t="s">
-        <v>4702</v>
-      </c>
-      <c r="B4701" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4702" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4702" t="s">
-        <v>4703</v>
-      </c>
-      <c r="B4702" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4703" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4703" t="s">
-        <v>4704</v>
-      </c>
-      <c r="B4703" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4704" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4704" t="s">
-        <v>4705</v>
-      </c>
-      <c r="B4704" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4705" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4705" t="s">
-        <v>4706</v>
-      </c>
-      <c r="B4705" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4706" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4706" t="s">
-        <v>4707</v>
-      </c>
-      <c r="B4706" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4707" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4707" t="s">
-        <v>4708</v>
-      </c>
-      <c r="B4707" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4708" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4708" t="s">
-        <v>4709</v>
-      </c>
-      <c r="B4708" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4709" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4709" t="s">
-        <v>4710</v>
-      </c>
-      <c r="B4709" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4710" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4710" t="s">
-        <v>4711</v>
-      </c>
-      <c r="B4710" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4711" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4711" t="s">
-        <v>4712</v>
-      </c>
-      <c r="B4711" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4712" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4712" t="s">
-        <v>4713</v>
-      </c>
-      <c r="B4712" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4713" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4713" t="s">
-        <v>4714</v>
-      </c>
-      <c r="B4713" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4714" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4714" t="s">
-        <v>4715</v>
-      </c>
-      <c r="B4714" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4715" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4715" t="s">
-        <v>4716</v>
-      </c>
-      <c r="B4715" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4716" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4716" t="s">
-        <v>4717</v>
-      </c>
-      <c r="B4716" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4717" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4717" t="s">
-        <v>4718</v>
-      </c>
-      <c r="B4717" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4718" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4718" t="s">
-        <v>4719</v>
-      </c>
-      <c r="B4718" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4719" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4719" t="s">
-        <v>4720</v>
-      </c>
-      <c r="B4719" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4720" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4720" t="s">
-        <v>4721</v>
-      </c>
-      <c r="B4720" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4721" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4721" t="s">
-        <v>4722</v>
-      </c>
-      <c r="B4721" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4722" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4722" t="s">
-        <v>4723</v>
-      </c>
-      <c r="B4722" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4723" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4723" t="s">
-        <v>4724</v>
-      </c>
-      <c r="B4723" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4724" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4724" t="s">
-        <v>4725</v>
-      </c>
-      <c r="B4724" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4725" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4725" t="s">
-        <v>4726</v>
-      </c>
-      <c r="B4725" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4726" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4726" t="s">
-        <v>4727</v>
-      </c>
-      <c r="B4726" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4727" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4727" t="s">
-        <v>4728</v>
-      </c>
-      <c r="B4727" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4728" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4728" t="s">
-        <v>4729</v>
-      </c>
-      <c r="B4728" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4729" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4729" t="s">
-        <v>4730</v>
-      </c>
-      <c r="B4729" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4730" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4730" t="s">
-        <v>4731</v>
-      </c>
-      <c r="B4730" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4731" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4731" t="s">
-        <v>4732</v>
-      </c>
-      <c r="B4731" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4732" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4732" t="s">
-        <v>4733</v>
-      </c>
-      <c r="B4732" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4733" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4733" t="s">
-        <v>4734</v>
-      </c>
-      <c r="B4733" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4734" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4734" t="s">
-        <v>4735</v>
-      </c>
-      <c r="B4734" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4735" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4735" t="s">
-        <v>4736</v>
-      </c>
-      <c r="B4735" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4736" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4736" t="s">
-        <v>4737</v>
-      </c>
-      <c r="B4736" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4737" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4737" t="s">
-        <v>4738</v>
-      </c>
-      <c r="B4737" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4738" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4738" t="s">
-        <v>4739</v>
-      </c>
-      <c r="B4738" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4739" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4739" t="s">
-        <v>4740</v>
-      </c>
-      <c r="B4739" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4740" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4740" t="s">
-        <v>4741</v>
-      </c>
-      <c r="B4740" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4741" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4741" t="s">
-        <v>4742</v>
-      </c>
-      <c r="B4741" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4742" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4742" t="s">
-        <v>4743</v>
-      </c>
-      <c r="B4742" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4743" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4743" t="s">
-        <v>4744</v>
-      </c>
-      <c r="B4743" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4744" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4744" t="s">
-        <v>4745</v>
-      </c>
-      <c r="B4744" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4745" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4745" t="s">
-        <v>4746</v>
-      </c>
-      <c r="B4745" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4746" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4746" t="s">
-        <v>4747</v>
-      </c>
-      <c r="B4746" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4747" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4747" t="s">
-        <v>4748</v>
-      </c>
-      <c r="B4747" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4748" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4748" t="s">
-        <v>4749</v>
-      </c>
-      <c r="B4748" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4749" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4749" t="s">
-        <v>4750</v>
-      </c>
-      <c r="B4749" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4750" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4750" t="s">
-        <v>4751</v>
-      </c>
-      <c r="B4750" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4751" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4751" t="s">
-        <v>4752</v>
-      </c>
-      <c r="B4751" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4752" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4752" t="s">
-        <v>4753</v>
-      </c>
-      <c r="B4752" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4753" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4753" t="s">
-        <v>4754</v>
-      </c>
-      <c r="B4753" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4754" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4754" t="s">
-        <v>4755</v>
-      </c>
-      <c r="B4754" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4755" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4755" t="s">
-        <v>4756</v>
-      </c>
-      <c r="B4755" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4756" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4756" t="s">
-        <v>4757</v>
-      </c>
-      <c r="B4756" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4757" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4757" t="s">
-        <v>4758</v>
-      </c>
-      <c r="B4757" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4758" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4758" t="s">
-        <v>4759</v>
-      </c>
-      <c r="B4758" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4759" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4759" t="s">
-        <v>4760</v>
-      </c>
-      <c r="B4759" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4760" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4760" t="s">
-        <v>4761</v>
-      </c>
-      <c r="B4760" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4761" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4761" t="s">
-        <v>4762</v>
-      </c>
-      <c r="B4761" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4762" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4762" t="s">
-        <v>4763</v>
-      </c>
-      <c r="B4762" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4763" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4763" t="s">
-        <v>4764</v>
-      </c>
-      <c r="B4763" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4764" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4764" t="s">
-        <v>4765</v>
-      </c>
-      <c r="B4764" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4765" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4765" t="s">
-        <v>4766</v>
-      </c>
-      <c r="B4765" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4766" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4766" t="s">
-        <v>4767</v>
-      </c>
-      <c r="B4766" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4767" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4767" t="s">
-        <v>4768</v>
-      </c>
-      <c r="B4767" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4768" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4768" t="s">
-        <v>4769</v>
-      </c>
-      <c r="B4768" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4769" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4769" t="s">
-        <v>4770</v>
-      </c>
-      <c r="B4769" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4770" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4770" t="s">
-        <v>4771</v>
-      </c>
-      <c r="B4770" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4771" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4771" t="s">
-        <v>4772</v>
-      </c>
-      <c r="B4771" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4772" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4772" t="s">
-        <v>4773</v>
-      </c>
-      <c r="B4772" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4773" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4773" t="s">
-        <v>4774</v>
-      </c>
-      <c r="B4773" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4774" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4774" t="s">
-        <v>4775</v>
-      </c>
-      <c r="B4774" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4775" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4775" t="s">
-        <v>4776</v>
-      </c>
-      <c r="B4775" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4776" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4776" t="s">
-        <v>4777</v>
-      </c>
-      <c r="B4776" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4777" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4777" t="s">
-        <v>4778</v>
-      </c>
-      <c r="B4777" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4778" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4778" t="s">
-        <v>4779</v>
-      </c>
-      <c r="B4778" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4779" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4779" t="s">
-        <v>4780</v>
-      </c>
-      <c r="B4779" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4780" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4780" t="s">
-        <v>4781</v>
-      </c>
-      <c r="B4780" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4781" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4781" t="s">
-        <v>4782</v>
-      </c>
-      <c r="B4781" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4782" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4782" t="s">
-        <v>4783</v>
-      </c>
-      <c r="B4782" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4783" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4783" t="s">
-        <v>4784</v>
-      </c>
-      <c r="B4783" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4784" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4784" t="s">
-        <v>4785</v>
-      </c>
-      <c r="B4784" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4785" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4785" t="s">
-        <v>4786</v>
-      </c>
-      <c r="B4785" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4786" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4786" t="s">
-        <v>4787</v>
-      </c>
-      <c r="B4786" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4787" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4787" t="s">
-        <v>4788</v>
-      </c>
-      <c r="B4787" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4788" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4788" t="s">
-        <v>4789</v>
-      </c>
-      <c r="B4788" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4789" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4789" t="s">
-        <v>4790</v>
-      </c>
-      <c r="B4789" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4790" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4790" t="s">
-        <v>4791</v>
-      </c>
-      <c r="B4790" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4791" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4791" t="s">
-        <v>4792</v>
-      </c>
-      <c r="B4791" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4792" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4792" t="s">
-        <v>4793</v>
-      </c>
-      <c r="B4792" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4793" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4793" t="s">
-        <v>4794</v>
-      </c>
-      <c r="B4793" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4794" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4794" t="s">
-        <v>4795</v>
-      </c>
-      <c r="B4794" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4795" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4795" t="s">
-        <v>4796</v>
-      </c>
-      <c r="B4795" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4796" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4796" t="s">
-        <v>4797</v>
-      </c>
-      <c r="B4796" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4797" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4797" t="s">
-        <v>4798</v>
-      </c>
-      <c r="B4797" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4798" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4798" t="s">
-        <v>4799</v>
-      </c>
-      <c r="B4798" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4799" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4799" t="s">
-        <v>4800</v>
-      </c>
-      <c r="B4799" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4800" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4800" t="s">
-        <v>4801</v>
-      </c>
-      <c r="B4800" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4801" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4801" t="s">
-        <v>4802</v>
-      </c>
-      <c r="B4801" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4802" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4802" t="s">
-        <v>4803</v>
-      </c>
-      <c r="B4802" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4803" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4803" t="s">
-        <v>4804</v>
-      </c>
-      <c r="B4803" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4804" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4804" t="s">
-        <v>4805</v>
-      </c>
-      <c r="B4804" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4805" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4805" t="s">
-        <v>4806</v>
-      </c>
-      <c r="B4805" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4806" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4806" t="s">
-        <v>4807</v>
-      </c>
-      <c r="B4806" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4807" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4807" t="s">
-        <v>4808</v>
-      </c>
-      <c r="B4807" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4808" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4808" t="s">
-        <v>4809</v>
-      </c>
-      <c r="B4808" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4809" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4809" t="s">
-        <v>4810</v>
-      </c>
-      <c r="B4809" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4810" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4810" t="s">
-        <v>4811</v>
-      </c>
-      <c r="B4810" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4811" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4811" t="s">
-        <v>4812</v>
-      </c>
-      <c r="B4811" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4812" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4812" t="s">
-        <v>4813</v>
-      </c>
-      <c r="B4812" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4813" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4813" t="s">
-        <v>4814</v>
-      </c>
-      <c r="B4813" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4814" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4814" t="s">
-        <v>4815</v>
-      </c>
-      <c r="B4814" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4815" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4815" t="s">
-        <v>4816</v>
-      </c>
-      <c r="B4815" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4816" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4816" t="s">
-        <v>4817</v>
-      </c>
-      <c r="B4816" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4817" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4817" t="s">
-        <v>4818</v>
-      </c>
-      <c r="B4817" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4818" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4818" t="s">
-        <v>4819</v>
-      </c>
-      <c r="B4818" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4819" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4819" t="s">
-        <v>4820</v>
-      </c>
-      <c r="B4819" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4820" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4820" t="s">
-        <v>4821</v>
-      </c>
-      <c r="B4820" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4821" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4821" t="s">
-        <v>4822</v>
-      </c>
-      <c r="B4821" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4822" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4822" t="s">
-        <v>4823</v>
-      </c>
-      <c r="B4822" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4823" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4823" t="s">
-        <v>4824</v>
-      </c>
-      <c r="B4823" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4824" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4824" t="s">
-        <v>4825</v>
-      </c>
-      <c r="B4824" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4825" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4825" t="s">
-        <v>4826</v>
-      </c>
-      <c r="B4825" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4826" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4826" t="s">
-        <v>4827</v>
-      </c>
-      <c r="B4826" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4827" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4827" t="s">
-        <v>4828</v>
-      </c>
-      <c r="B4827" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4828" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4828" t="s">
-        <v>4829</v>
-      </c>
-      <c r="B4828" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4829" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4829" t="s">
-        <v>4830</v>
-      </c>
-      <c r="B4829" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4830" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4830" t="s">
-        <v>4831</v>
-      </c>
-      <c r="B4830" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4831" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4831" t="s">
-        <v>4832</v>
-      </c>
-      <c r="B4831" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4832" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4832" t="s">
-        <v>4833</v>
-      </c>
-      <c r="B4832" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4833" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4833" t="s">
-        <v>4834</v>
-      </c>
-      <c r="B4833" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4834" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4834" t="s">
-        <v>4835</v>
-      </c>
-      <c r="B4834" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4835" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4835" t="s">
-        <v>4836</v>
-      </c>
-      <c r="B4835" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4836" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4836" t="s">
-        <v>4837</v>
-      </c>
-      <c r="B4836" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4837" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4837" t="s">
-        <v>4838</v>
-      </c>
-      <c r="B4837" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4838" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4838" t="s">
-        <v>4839</v>
-      </c>
-      <c r="B4838" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4839" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4839" t="s">
-        <v>4840</v>
-      </c>
-      <c r="B4839" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4840" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4840" t="s">
-        <v>4841</v>
-      </c>
-      <c r="B4840" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4841" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4841" t="s">
-        <v>4842</v>
-      </c>
-      <c r="B4841" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4842" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4842" t="s">
-        <v>4843</v>
-      </c>
-      <c r="B4842" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4843" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4843" t="s">
-        <v>4844</v>
-      </c>
-      <c r="B4843" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4844" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4844" t="s">
-        <v>4845</v>
-      </c>
-      <c r="B4844" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4845" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4845" t="s">
-        <v>4846</v>
-      </c>
-      <c r="B4845" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4846" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4846" t="s">
-        <v>4847</v>
-      </c>
-      <c r="B4846" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4847" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4847" t="s">
-        <v>4848</v>
-      </c>
-      <c r="B4847" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4848" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4848" t="s">
-        <v>4849</v>
-      </c>
-      <c r="B4848" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4849" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4849" t="s">
-        <v>4850</v>
-      </c>
-      <c r="B4849" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4850" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4850" t="s">
-        <v>4851</v>
-      </c>
-      <c r="B4850" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4851" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4851" t="s">
-        <v>4852</v>
-      </c>
-      <c r="B4851" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4852" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4852" t="s">
-        <v>4853</v>
-      </c>
-      <c r="B4852" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4853" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4853" t="s">
-        <v>4854</v>
-      </c>
-      <c r="B4853" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4854" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4854" t="s">
-        <v>4855</v>
-      </c>
-      <c r="B4854" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4855" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4855" t="s">
-        <v>4856</v>
-      </c>
-      <c r="B4855" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4856" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4856" t="s">
-        <v>4857</v>
-      </c>
-      <c r="B4856" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4857" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4857" t="s">
-        <v>4858</v>
-      </c>
-      <c r="B4857" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4858" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4858" t="s">
-        <v>4859</v>
-      </c>
-      <c r="B4858" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4859" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4859" t="s">
-        <v>4860</v>
-      </c>
-      <c r="B4859" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4860" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4860" t="s">
-        <v>4861</v>
-      </c>
-      <c r="B4860" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4861" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4861" t="s">
-        <v>4862</v>
-      </c>
-      <c r="B4861" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4862" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4862" t="s">
-        <v>4863</v>
-      </c>
-      <c r="B4862" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4863" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4863" t="s">
-        <v>4864</v>
-      </c>
-      <c r="B4863" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4864" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4864" t="s">
-        <v>4865</v>
-      </c>
-      <c r="B4864" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4865" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4865" t="s">
-        <v>4866</v>
-      </c>
-      <c r="B4865" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4866" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4866" t="s">
-        <v>4867</v>
-      </c>
-      <c r="B4866" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4867" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4867" t="s">
-        <v>4868</v>
-      </c>
-      <c r="B4867" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4868" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4868" t="s">
-        <v>4869</v>
-      </c>
-      <c r="B4868" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4869" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4869" t="s">
-        <v>4870</v>
-      </c>
-      <c r="B4869" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4870" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4870" t="s">
-        <v>4871</v>
-      </c>
-      <c r="B4870" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4871" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4871" t="s">
-        <v>4872</v>
-      </c>
-      <c r="B4871" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4872" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4872" t="s">
-        <v>4873</v>
-      </c>
-      <c r="B4872" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4873" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4873" t="s">
-        <v>4874</v>
-      </c>
-      <c r="B4873" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4874" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4874" t="s">
-        <v>4875</v>
-      </c>
-      <c r="B4874" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4875" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4875" t="s">
-        <v>4876</v>
-      </c>
-      <c r="B4875" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4876" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4876" t="s">
-        <v>4877</v>
-      </c>
-      <c r="B4876" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4877" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4877" t="s">
-        <v>4878</v>
-      </c>
-      <c r="B4877" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4878" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4878" t="s">
-        <v>4879</v>
-      </c>
-      <c r="B4878" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4879" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4879" t="s">
-        <v>4880</v>
-      </c>
-      <c r="B4879" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4880" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4880" t="s">
-        <v>4881</v>
-      </c>
-      <c r="B4880" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4881" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4881" t="s">
-        <v>4882</v>
-      </c>
-      <c r="B4881" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4882" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4882" t="s">
-        <v>4883</v>
-      </c>
-      <c r="B4882" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4883" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4883" t="s">
-        <v>4884</v>
-      </c>
-      <c r="B4883" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4884" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4884" t="s">
-        <v>4885</v>
-      </c>
-      <c r="B4884" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4885" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4885" t="s">
-        <v>4886</v>
-      </c>
-      <c r="B4885" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4886" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4886" t="s">
-        <v>4887</v>
-      </c>
-      <c r="B4886" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4887" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4887" t="s">
-        <v>4888</v>
-      </c>
-      <c r="B4887" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4888" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4888" t="s">
-        <v>4889</v>
-      </c>
-      <c r="B4888" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4889" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4889" t="s">
-        <v>4890</v>
-      </c>
-      <c r="B4889" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4890" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4890" t="s">
-        <v>4891</v>
-      </c>
-      <c r="B4890" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4891" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4891" t="s">
-        <v>4892</v>
-      </c>
-      <c r="B4891" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4892" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4892" t="s">
-        <v>4893</v>
-      </c>
-      <c r="B4892" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4893" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4893" t="s">
-        <v>4894</v>
-      </c>
-      <c r="B4893" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4894" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4894" t="s">
-        <v>4895</v>
-      </c>
-      <c r="B4894" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4895" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4895" t="s">
-        <v>4896</v>
-      </c>
-      <c r="B4895" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4896" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4896" t="s">
-        <v>4897</v>
-      </c>
-      <c r="B4896" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4897" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4897" t="s">
-        <v>4898</v>
-      </c>
-      <c r="B4897" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4898" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4898" t="s">
-        <v>4899</v>
-      </c>
-      <c r="B4898" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4899" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4899" t="s">
-        <v>4900</v>
-      </c>
-      <c r="B4899" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4900" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4900" t="s">
-        <v>4901</v>
-      </c>
-      <c r="B4900" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4901" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4901" t="s">
-        <v>4902</v>
-      </c>
-      <c r="B4901" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4902" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4902" t="s">
-        <v>4903</v>
-      </c>
-      <c r="B4902" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4903" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4903" t="s">
-        <v>4904</v>
-      </c>
-      <c r="B4903" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4904" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4904" t="s">
-        <v>4905</v>
-      </c>
-      <c r="B4904" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4905" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4905" t="s">
-        <v>4906</v>
-      </c>
-      <c r="B4905" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4906" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4906" t="s">
-        <v>4907</v>
-      </c>
-      <c r="B4906" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4907" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4907" t="s">
-        <v>4908</v>
-      </c>
-      <c r="B4907" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4908" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4908" t="s">
-        <v>4909</v>
-      </c>
-      <c r="B4908" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4909" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4909" t="s">
-        <v>4910</v>
-      </c>
-      <c r="B4909" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4910" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4910" t="s">
-        <v>4911</v>
-      </c>
-      <c r="B4910" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4911" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4911" t="s">
-        <v>4912</v>
-      </c>
-      <c r="B4911" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4912" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4912" t="s">
-        <v>4913</v>
-      </c>
-      <c r="B4912" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4913" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4913" t="s">
-        <v>4914</v>
-      </c>
-      <c r="B4913" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4914" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4914" t="s">
-        <v>4915</v>
-      </c>
-      <c r="B4914" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4915" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4915" t="s">
-        <v>4916</v>
-      </c>
-      <c r="B4915" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4916" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4916" t="s">
-        <v>4917</v>
-      </c>
-      <c r="B4916" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4917" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4917" t="s">
-        <v>4918</v>
-      </c>
-      <c r="B4917" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4918" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4918" t="s">
-        <v>4919</v>
-      </c>
-      <c r="B4918" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4919" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4919" t="s">
-        <v>4920</v>
-      </c>
-      <c r="B4919" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4920" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4920" t="s">
-        <v>4921</v>
-      </c>
-      <c r="B4920" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4921" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4921" t="s">
-        <v>4922</v>
-      </c>
-      <c r="B4921" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4922" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4922" t="s">
-        <v>4923</v>
-      </c>
-      <c r="B4922" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4923" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4923" t="s">
-        <v>4924</v>
-      </c>
-      <c r="B4923" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4924" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4924" t="s">
-        <v>4925</v>
-      </c>
-      <c r="B4924" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4925" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4925" t="s">
-        <v>4926</v>
-      </c>
-      <c r="B4925" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4926" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4926" t="s">
-        <v>4927</v>
-      </c>
-      <c r="B4926" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4927" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4927" t="s">
-        <v>4928</v>
-      </c>
-      <c r="B4927" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4928" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4928" t="s">
-        <v>4929</v>
-      </c>
-      <c r="B4928" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4929" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4929" t="s">
-        <v>4930</v>
-      </c>
-      <c r="B4929" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4930" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4930" t="s">
-        <v>4931</v>
-      </c>
-      <c r="B4930" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4931" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4931" t="s">
-        <v>4932</v>
-      </c>
-      <c r="B4931" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4932" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4932" t="s">
-        <v>4933</v>
-      </c>
-      <c r="B4932" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4933" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4933" t="s">
-        <v>4934</v>
-      </c>
-      <c r="B4933" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4934" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4934" t="s">
-        <v>4935</v>
-      </c>
-      <c r="B4934" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4935" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4935" t="s">
-        <v>4936</v>
-      </c>
-      <c r="B4935" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4936" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4936" t="s">
-        <v>4937</v>
-      </c>
-      <c r="B4936" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4937" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4937" t="s">
-        <v>4938</v>
-      </c>
-      <c r="B4937" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4938" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4938" t="s">
-        <v>4939</v>
-      </c>
-      <c r="B4938" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4939" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4939" t="s">
-        <v>4940</v>
-      </c>
-      <c r="B4939" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4940" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4940" t="s">
-        <v>4941</v>
-      </c>
-      <c r="B4940" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4941" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4941" t="s">
-        <v>4942</v>
-      </c>
-      <c r="B4941" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4942" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4942" t="s">
-        <v>4943</v>
-      </c>
-      <c r="B4942" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4943" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4943" t="s">
-        <v>4944</v>
-      </c>
-      <c r="B4943" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4944" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4944" t="s">
-        <v>4945</v>
-      </c>
-      <c r="B4944" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4945" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4945" t="s">
-        <v>4946</v>
-      </c>
-      <c r="B4945" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4946" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4946" t="s">
-        <v>4947</v>
-      </c>
-      <c r="B4946" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4947" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4947" t="s">
-        <v>4948</v>
-      </c>
-      <c r="B4947" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4948" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4948" t="s">
-        <v>4949</v>
-      </c>
-      <c r="B4948" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4949" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4949" t="s">
-        <v>4950</v>
-      </c>
-      <c r="B4949" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4950" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4950" t="s">
-        <v>4951</v>
-      </c>
-      <c r="B4950" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4951" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4951" t="s">
-        <v>4952</v>
-      </c>
-      <c r="B4951" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4952" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4952" t="s">
-        <v>4953</v>
-      </c>
-      <c r="B4952" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4953" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4953" t="s">
-        <v>4954</v>
-      </c>
-      <c r="B4953" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4954" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4954" t="s">
-        <v>4955</v>
-      </c>
-      <c r="B4954" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4955" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4955" t="s">
-        <v>4956</v>
-      </c>
-      <c r="B4955" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4956" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4956" t="s">
-        <v>4957</v>
-      </c>
-      <c r="B4956" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4957" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4957" t="s">
-        <v>4958</v>
-      </c>
-      <c r="B4957" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4958" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4958" t="s">
-        <v>4959</v>
-      </c>
-      <c r="B4958" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4959" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4959" t="s">
-        <v>4960</v>
-      </c>
-      <c r="B4959" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4960" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4960" t="s">
-        <v>4961</v>
-      </c>
-      <c r="B4960" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4961" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4961" t="s">
-        <v>4962</v>
-      </c>
-      <c r="B4961" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4962" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4962" t="s">
-        <v>4963</v>
-      </c>
-      <c r="B4962" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4963" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4963" t="s">
-        <v>4964</v>
-      </c>
-      <c r="B4963" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4964" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4964" t="s">
-        <v>4965</v>
-      </c>
-      <c r="B4964" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4965" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4965" t="s">
-        <v>4966</v>
-      </c>
-      <c r="B4965" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4966" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4966" t="s">
-        <v>4967</v>
-      </c>
-      <c r="B4966" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4967" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4967" t="s">
-        <v>4968</v>
-      </c>
-      <c r="B4967" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4968" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4968" t="s">
-        <v>4969</v>
-      </c>
-      <c r="B4968" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4969" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4969" t="s">
-        <v>4970</v>
-      </c>
-      <c r="B4969" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4970" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4970" t="s">
-        <v>4971</v>
-      </c>
-      <c r="B4970" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4971" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4971" t="s">
-        <v>4972</v>
-      </c>
-      <c r="B4971" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4972" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4972" t="s">
-        <v>4973</v>
-      </c>
-      <c r="B4972" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4973" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4973" t="s">
-        <v>4974</v>
-      </c>
-      <c r="B4973" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4974" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4974" t="s">
-        <v>4975</v>
-      </c>
-      <c r="B4974" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4975" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4975" t="s">
-        <v>4976</v>
-      </c>
-      <c r="B4975" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4976" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4976" t="s">
-        <v>4977</v>
-      </c>
-      <c r="B4976" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4977" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4977" t="s">
-        <v>4978</v>
-      </c>
-      <c r="B4977" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4978" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4978" t="s">
-        <v>4979</v>
-      </c>
-      <c r="B4978" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4979" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4979" t="s">
-        <v>4980</v>
-      </c>
-      <c r="B4979" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4980" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4980" t="s">
-        <v>4981</v>
-      </c>
-      <c r="B4980" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4981" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4981" t="s">
-        <v>4982</v>
-      </c>
-      <c r="B4981" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4982" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4982" t="s">
-        <v>4983</v>
-      </c>
-      <c r="B4982" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4983" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4983" t="s">
-        <v>4984</v>
-      </c>
-      <c r="B4983" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4984" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4984" t="s">
-        <v>4985</v>
-      </c>
-      <c r="B4984" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4985" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4985" t="s">
-        <v>4986</v>
-      </c>
-      <c r="B4985" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4986" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4986" t="s">
-        <v>4987</v>
-      </c>
-      <c r="B4986" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4987" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4987" t="s">
-        <v>4988</v>
-      </c>
-      <c r="B4987" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4988" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4988" t="s">
-        <v>4989</v>
-      </c>
-      <c r="B4988" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4989" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4989" t="s">
-        <v>4990</v>
-      </c>
-      <c r="B4989" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4990" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4990" t="s">
-        <v>4991</v>
-      </c>
-      <c r="B4990" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4991" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4991" t="s">
-        <v>4992</v>
-      </c>
-      <c r="B4991" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4992" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4992" t="s">
-        <v>4993</v>
-      </c>
-      <c r="B4992" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4993" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4993" t="s">
-        <v>4994</v>
-      </c>
-      <c r="B4993" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4994" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4994" t="s">
-        <v>4995</v>
-      </c>
-      <c r="B4994" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4995" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4995" t="s">
-        <v>4996</v>
-      </c>
-      <c r="B4995" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4996" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4996" t="s">
-        <v>4997</v>
-      </c>
-      <c r="B4996" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4997" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4997" t="s">
-        <v>4998</v>
-      </c>
-      <c r="B4997" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4998" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4998" t="s">
-        <v>4999</v>
-      </c>
-      <c r="B4998" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4999" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4999" t="s">
-        <v>5000</v>
-      </c>
-      <c r="B4999" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5000" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5000" t="s">
-        <v>5001</v>
-      </c>
-      <c r="B5000" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5001" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5001" t="s">
-        <v>5002</v>
-      </c>
-      <c r="B5001" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
